--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E5796-CC0B-44D4-9345-A456CDAEA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -458,6 +456,221 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+検索画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+詳細画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+検索結果画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+カート画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+購入画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報機能（ログイン部分）
+ログイン画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員情報機能（会員情報部分）
+会員登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>カイイントウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員情報機能（会員情報部分）
+会員情報変更画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>カイインジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員情報機能（会員情報部分）
+退会画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>タイカイガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>購入管理機能（履歴部分）
+購入履歴画面</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウカンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>コウニュウリレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入管理機能（キャンセル部分）
+購入キャンセル画面</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウカンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +681,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -498,6 +711,13 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1573,7 +1793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,6 +1969,297 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +2269,69 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1767,359 +2341,53 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2823,117 +3091,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+      <selection pane="bottomRight" activeCell="BD28" sqref="BD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="158">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="158">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
+      <c r="AL1" s="159"/>
+      <c r="AM1" s="159"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="159"/>
+      <c r="AP1" s="159"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="159"/>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
+      <c r="AV1" s="159"/>
+      <c r="AW1" s="159"/>
+      <c r="AX1" s="159"/>
+      <c r="AY1" s="159"/>
+      <c r="AZ1" s="159"/>
+      <c r="BA1" s="159"/>
+      <c r="BB1" s="159"/>
+      <c r="BC1" s="159"/>
+      <c r="BD1" s="159"/>
+      <c r="BE1" s="159"/>
+      <c r="BF1" s="159"/>
+      <c r="BG1" s="159"/>
+      <c r="BH1" s="159"/>
+      <c r="BI1" s="159"/>
+      <c r="BJ1" s="159"/>
+      <c r="BK1" s="159"/>
+      <c r="BL1" s="159"/>
+      <c r="BM1" s="159"/>
+      <c r="BN1" s="160"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3175,12 +3443,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3268,10 +3536,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3280,19 +3548,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AP3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3301,19 +3569,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AU3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AW3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3322,19 +3590,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BB3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BD3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BF3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3343,43 +3611,43 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BI3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BK3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BM3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BN3" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="151">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3404,8 +3672,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3434,20 +3702,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
+      <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3472,8 +3740,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="83"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3502,31 +3770,31 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
+      <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="95">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3544,8 +3812,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3574,27 +3842,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
+      <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="197"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3612,8 +3880,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="85"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3642,33 +3910,33 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
+      <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="132">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3686,8 +3954,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3716,27 +3984,27 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
+      <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="44"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
@@ -3754,8 +4022,8 @@
       <c r="AG9" s="44"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="87"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="44"/>
@@ -3784,37 +4052,37 @@
       <c r="BK9" s="43"/>
       <c r="BL9" s="43"/>
       <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
+      <c r="BN9" s="76"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="132">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="16"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
+      <c r="V10" s="199"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
@@ -3828,8 +4096,8 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="83"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="16"/>
@@ -3858,27 +4126,27 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
+      <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -3896,8 +4164,8 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="83"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="16"/>
@@ -3926,38 +4194,38 @@
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
+      <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3968,8 +4236,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3998,27 +4266,27 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
+      <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -4036,8 +4304,8 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="85"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="24"/>
       <c r="AN13" s="25"/>
@@ -4066,52 +4334,52 @@
       <c r="BK13" s="24"/>
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
+      <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="127">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="65"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="86"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
@@ -4140,27 +4408,27 @@
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
+      <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="25"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
@@ -4178,8 +4446,8 @@
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="85"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
@@ -4208,19 +4476,19 @@
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
       <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
+      <c r="BN15" s="74"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="127">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4228,11 +4496,11 @@
       <c r="K16" s="7"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4244,14 +4512,14 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="84"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4280,15 +4548,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4296,11 +4564,11 @@
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4318,8 +4586,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4348,19 +4616,19 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
+      <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="127">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4368,67 +4636,67 @@
       <c r="K18" s="24"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
       <c r="AU18" s="25"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
       <c r="BB18" s="25"/>
       <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
       <c r="BI18" s="25"/>
       <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="77"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4436,73 +4704,73 @@
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="17"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
       <c r="BB19" s="17"/>
       <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="78"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4510,69 +4778,69 @@
       <c r="K20" s="6"/>
       <c r="L20" s="15"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
       <c r="BI20" s="15"/>
       <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="79"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4580,71 +4848,71 @@
       <c r="K21" s="7"/>
       <c r="L21" s="13"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="63"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21" s="13"/>
       <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
       <c r="BI21" s="13"/>
       <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="80"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
+      <c r="C22" s="195" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="192"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="190"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4652,67 +4920,67 @@
       <c r="K22" s="7"/>
       <c r="L22" s="13"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="186"/>
+      <c r="AK22" s="187"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="63"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
+      <c r="BD22" s="63"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="63"/>
+      <c r="BG22" s="63"/>
+      <c r="BH22" s="63"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
+      <c r="BN22" s="80"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4720,281 +4988,279 @@
       <c r="K23" s="7"/>
       <c r="L23" s="13"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="63"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="63"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
       <c r="BI23" s="13"/>
       <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="80"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
+      <c r="C24" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="192"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="63"/>
+      <c r="AY24" s="63"/>
+      <c r="AZ24" s="63"/>
+      <c r="BA24" s="63"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="63"/>
+      <c r="BE24" s="63"/>
+      <c r="BF24" s="63"/>
+      <c r="BG24" s="63"/>
+      <c r="BH24" s="63"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="63"/>
+      <c r="BM24" s="63"/>
+      <c r="BN24" s="80"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="105">
         <v>12</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="195" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="192"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="191"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5002,220 +5268,1514 @@
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="105">
+        <v>13</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="195" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="192"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="80"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="106"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="80"/>
+    </row>
+    <row r="30" spans="1:66" ht="12" customHeight="1">
+      <c r="A30" s="105">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="108"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="80"/>
+    </row>
+    <row r="31" spans="1:66" ht="12" customHeight="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="105">
+        <v>15</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="108"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="77"/>
+    </row>
+    <row r="33" spans="1:66" ht="12" customHeight="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="77"/>
+    </row>
+    <row r="34" spans="1:66" ht="12" customHeight="1">
+      <c r="A34" s="105">
+        <v>16</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="108"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="77"/>
+    </row>
+    <row r="35" spans="1:66" ht="12" customHeight="1">
+      <c r="A35" s="106"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="77"/>
+    </row>
+    <row r="36" spans="1:66" ht="12" customHeight="1">
+      <c r="A36" s="105">
+        <v>17</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="108"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="88"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="77"/>
+    </row>
+    <row r="37" spans="1:66" ht="12" customHeight="1">
+      <c r="A37" s="106"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="77"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="64"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="25"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="64"/>
+      <c r="BM37" s="64"/>
+      <c r="BN37" s="77"/>
+    </row>
+    <row r="38" spans="1:66" ht="12" customHeight="1">
+      <c r="A38" s="105">
+        <v>18</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="108"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="77"/>
+      <c r="AK38" s="88"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="64"/>
+      <c r="AY38" s="64"/>
+      <c r="AZ38" s="64"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="42"/>
+      <c r="BE38" s="64"/>
+      <c r="BF38" s="64"/>
+      <c r="BG38" s="64"/>
+      <c r="BH38" s="64"/>
+      <c r="BI38" s="25"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="64"/>
+      <c r="BL38" s="64"/>
+      <c r="BM38" s="64"/>
+      <c r="BN38" s="77"/>
+    </row>
+    <row r="39" spans="1:66" ht="12" customHeight="1">
+      <c r="A39" s="106"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="77"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="64"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="64"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="64"/>
+      <c r="BE39" s="64"/>
+      <c r="BF39" s="64"/>
+      <c r="BG39" s="64"/>
+      <c r="BH39" s="64"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="64"/>
+      <c r="BL39" s="64"/>
+      <c r="BM39" s="64"/>
+      <c r="BN39" s="77"/>
+    </row>
+    <row r="40" spans="1:66" ht="12" customHeight="1">
+      <c r="A40" s="105">
+        <v>19</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="64"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="64"/>
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="25"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="64"/>
+      <c r="AZ40" s="64"/>
+      <c r="BA40" s="64"/>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="64"/>
+      <c r="BH40" s="64"/>
+      <c r="BI40" s="25"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="64"/>
+      <c r="BL40" s="64"/>
+      <c r="BM40" s="64"/>
+      <c r="BN40" s="77"/>
+    </row>
+    <row r="41" spans="1:66" ht="12" customHeight="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="77"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="25"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="64"/>
+      <c r="AZ41" s="64"/>
+      <c r="BA41" s="64"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="64"/>
+      <c r="BE41" s="64"/>
+      <c r="BF41" s="64"/>
+      <c r="BG41" s="64"/>
+      <c r="BH41" s="64"/>
+      <c r="BI41" s="25"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="64"/>
+      <c r="BL41" s="64"/>
+      <c r="BM41" s="64"/>
+      <c r="BN41" s="77"/>
+    </row>
+    <row r="42" spans="1:66" ht="12" customHeight="1">
+      <c r="A42" s="105">
+        <v>20</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="108"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="77"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="64"/>
+      <c r="AM42" s="64"/>
+      <c r="AN42" s="25"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="64"/>
+      <c r="AQ42" s="64"/>
+      <c r="AR42" s="64"/>
+      <c r="AS42" s="64"/>
+      <c r="AT42" s="64"/>
+      <c r="AU42" s="25"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="64"/>
+      <c r="AZ42" s="64"/>
+      <c r="BA42" s="64"/>
+      <c r="BB42" s="25"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="64"/>
+      <c r="BE42" s="64"/>
+      <c r="BF42" s="42"/>
+      <c r="BG42" s="42"/>
+      <c r="BH42" s="64"/>
+      <c r="BI42" s="25"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="64"/>
+      <c r="BL42" s="64"/>
+      <c r="BM42" s="64"/>
+      <c r="BN42" s="77"/>
+    </row>
+    <row r="43" spans="1:66" ht="12" customHeight="1">
+      <c r="A43" s="106"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="89"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="68"/>
+      <c r="AY43" s="68"/>
+      <c r="AZ43" s="68"/>
+      <c r="BA43" s="68"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="23"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
+      <c r="BG43" s="68"/>
+      <c r="BH43" s="68"/>
+      <c r="BI43" s="17"/>
+      <c r="BJ43" s="23"/>
+      <c r="BK43" s="68"/>
+      <c r="BL43" s="68"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="78"/>
+    </row>
+    <row r="44" spans="1:66" ht="12" customHeight="1">
+      <c r="A44" s="105">
+        <v>21</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="117"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="79"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
+      <c r="BA44" s="65"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="65"/>
+      <c r="BE44" s="65"/>
+      <c r="BF44" s="65"/>
+      <c r="BG44" s="65"/>
+      <c r="BH44" s="40"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="40"/>
+      <c r="BL44" s="65"/>
+      <c r="BM44" s="65"/>
+      <c r="BN44" s="79"/>
+    </row>
+    <row r="45" spans="1:66" ht="12" customHeight="1">
+      <c r="A45" s="106"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="91"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="63"/>
+      <c r="AY45" s="63"/>
+      <c r="AZ45" s="63"/>
+      <c r="BA45" s="63"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="63"/>
+      <c r="BE45" s="63"/>
+      <c r="BF45" s="63"/>
+      <c r="BG45" s="63"/>
+      <c r="BH45" s="63"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="63"/>
+      <c r="BL45" s="63"/>
+      <c r="BM45" s="63"/>
+      <c r="BN45" s="80"/>
+    </row>
+    <row r="46" spans="1:66" ht="12" customHeight="1">
+      <c r="A46" s="105">
+        <v>22</v>
+      </c>
+      <c r="B46" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C46" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
+      <c r="AR46" s="65"/>
+      <c r="AS46" s="65"/>
+      <c r="AT46" s="65"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="65"/>
+      <c r="AY46" s="65"/>
+      <c r="AZ46" s="65"/>
+      <c r="BA46" s="65"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="21"/>
+      <c r="BD46" s="65"/>
+      <c r="BE46" s="65"/>
+      <c r="BF46" s="65"/>
+      <c r="BG46" s="65"/>
+      <c r="BH46" s="65"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="21"/>
+      <c r="BK46" s="65"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+      <c r="BN46" s="79"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
+    <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A47" s="106"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="69"/>
+      <c r="AD47" s="69"/>
+      <c r="AE47" s="69"/>
+      <c r="AF47" s="69"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="92"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="69"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="69"/>
+      <c r="BE47" s="69"/>
+      <c r="BF47" s="69"/>
+      <c r="BG47" s="69"/>
+      <c r="BH47" s="69"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="20"/>
+      <c r="BK47" s="69"/>
+      <c r="BL47" s="69"/>
+      <c r="BM47" s="69"/>
+      <c r="BN47" s="81"/>
     </row>
-    <row r="30" spans="1:66">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+    <row r="48" spans="1:66">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
     </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="96">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="A1:A3"/>
@@ -5259,23 +6819,27 @@
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -5306,67 +6870,67 @@
       <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="160"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -5441,12 +7005,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -5521,20 +7085,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="151">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -5557,20 +7121,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="67" t="s">
+      <c r="AD4" s="179" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -5593,22 +7157,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="180"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="95">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5631,16 +7195,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="180"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -5663,24 +7227,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="180"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
+      <c r="D8" s="139"/>
+      <c r="E8" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5703,16 +7267,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="180"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -5735,24 +7299,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="180"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="132">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5775,16 +7339,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="180"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5807,22 +7371,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="180"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="129"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5845,16 +7409,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="180"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -5877,24 +7441,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="180"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="127">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="124"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5917,16 +7481,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="180"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -5949,22 +7513,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="180"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="127">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5987,16 +7551,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="180"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -6019,22 +7583,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="180"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="127">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="108"/>
+      <c r="E18" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -6057,16 +7621,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="180"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -6089,24 +7653,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="180"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="105">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -6129,18 +7693,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="180"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6163,22 +7727,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="180"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="105">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6201,16 +7765,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="180"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6233,22 +7797,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="180"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="105">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="129"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -6271,16 +7835,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="180"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6303,24 +7867,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="180"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="95">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6343,16 +7907,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="180"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6375,24 +7939,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="180"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="95">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6415,16 +7979,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="180"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -6447,8 +8011,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="181"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -6468,51 +8032,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -6523,6 +8081,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="AC4:AC29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
     <mergeCell ref="G1:AD1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E5796-CC0B-44D4-9345-A456CDAEA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F7846-60D8-4F99-A2B0-DECDFC7A923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -464,110 +464,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショッピング機能（検索部分）
-検索画面</t>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
+    <t>100%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>鈴木崇志</t>
+    <rPh sb="0" eb="4">
+      <t>スズキタカユキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>結合試験
+レビュー、修正</t>
+    <rPh sb="0" eb="4">
+      <t>ケツゴウシケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショッピング機能（検索部分）
-詳細画面</t>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
+    <t>総合試験
+レビュー、修正</t>
+    <rPh sb="0" eb="4">
+      <t>ソウゴウシケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショッピング機能（検索部分）
-検索結果画面</t>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショッピング機能（決算部分）
-カート画面</t>
-    <rPh sb="9" eb="11">
-      <t>ケッサン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショッピング機能（決算部分）
-購入画面</t>
-    <rPh sb="9" eb="11">
-      <t>ケッサン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
+    <t>イベント定義書</t>
+    <rPh sb="4" eb="7">
+      <t>テイギショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員情報機能（ログイン部分）
-ログイン画面</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
+    <t>ログイン機能</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>会員情報機能（会員情報部分）
-会員登録画面</t>
+    <t>会員情報登録退会機能</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
     </rPh>
@@ -575,99 +537,37 @@
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="21">
-      <t>カイイントウロクガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>会員情報機能（会員情報部分）
-会員情報変更画面</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
+    <t>商品検索機能</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="21">
-      <t>カイインジョウホウヘンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>会員情報機能（会員情報部分）
-退会画面</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <t>ショッピングカート機能</t>
+    <rPh sb="9" eb="11">
       <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>タイカイガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>購入管理機能（履歴部分）
-購入履歴画面</t>
+    <t>購入機能</t>
     <rPh sb="0" eb="4">
-      <t>コウニュウカンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="13" eb="19">
-      <t>コウニュウリレキガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入管理機能（キャンセル部分）
-購入キャンセル画面</t>
-    <rPh sb="0" eb="4">
-      <t>コウニュウカンリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
+      <t>コウニュウキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,7 +621,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +682,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="81">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1789,11 +1695,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1987,9 +2235,6 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2071,9 +2316,508 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2083,12 +2827,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2101,24 +2839,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2128,34 +2848,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2164,230 +2863,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3091,13 +3622,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN50"/>
+  <dimension ref="A1:BN47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BD28" sqref="BD28"/>
+      <selection pane="bottomRight" activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3106,102 +3637,102 @@
     <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="103" customWidth="1"/>
     <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
     <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="158">
+      <c r="G1" s="177">
         <v>45536</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="158">
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="179"/>
+      <c r="AK1" s="177">
         <v>45566</v>
       </c>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="159"/>
-      <c r="AZ1" s="159"/>
-      <c r="BA1" s="159"/>
-      <c r="BB1" s="159"/>
-      <c r="BC1" s="159"/>
-      <c r="BD1" s="159"/>
-      <c r="BE1" s="159"/>
-      <c r="BF1" s="159"/>
-      <c r="BG1" s="159"/>
-      <c r="BH1" s="159"/>
-      <c r="BI1" s="159"/>
-      <c r="BJ1" s="159"/>
-      <c r="BK1" s="159"/>
-      <c r="BL1" s="159"/>
-      <c r="BM1" s="159"/>
-      <c r="BN1" s="160"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+      <c r="BB1" s="178"/>
+      <c r="BC1" s="178"/>
+      <c r="BD1" s="178"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+      <c r="BK1" s="178"/>
+      <c r="BL1" s="178"/>
+      <c r="BM1" s="178"/>
+      <c r="BN1" s="179"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3443,12 +3974,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="178"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="197"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3536,10 +4067,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="70" t="s">
+      <c r="AJ3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="93" t="s">
+      <c r="AK3" s="92" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3548,19 +4079,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="94" t="s">
+      <c r="AN3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="94" t="s">
+      <c r="AP3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="94" t="s">
+      <c r="AR3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3569,19 +4100,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="94" t="s">
+      <c r="AU3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="94" t="s">
+      <c r="AW3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="94" t="s">
+      <c r="AY3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3590,19 +4121,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="94" t="s">
+      <c r="BB3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="94" t="s">
+      <c r="BD3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="94" t="s">
+      <c r="BF3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3611,46 +4142,50 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="94" t="s">
+      <c r="BI3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="94" t="s">
+      <c r="BK3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="94" t="s">
+      <c r="BM3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="70" t="s">
+      <c r="BN3" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="151">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="185"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="94"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="99"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3672,8 +4207,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="82"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="81"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3702,16 +4237,16 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="71"/>
+      <c r="BN4" s="70"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="196"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
@@ -3740,8 +4275,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="83"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="82"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3770,27 +4305,31 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="72"/>
+      <c r="BN5" s="71"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="95">
+      <c r="A6" s="158">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="164" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="166" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="63"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -3812,8 +4351,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="84"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="83"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3842,20 +4381,20 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="73"/>
+      <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="197"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
       <c r="N7" s="64"/>
@@ -3880,8 +4419,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="85"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="84"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3910,38 +4449,40 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="74"/>
+      <c r="BN7" s="73"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="132">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="125"/>
+      <c r="C8" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="225" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="198"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="30"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="65"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="65"/>
       <c r="R8" s="65"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="65"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="15"/>
@@ -3954,8 +4495,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="86"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="85"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3984,516 +4525,518 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="75"/>
+      <c r="BN8" s="74"/>
     </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="76"/>
+    <row r="9" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A9" s="157"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="118"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="118"/>
+      <c r="AQ9" s="118"/>
+      <c r="AR9" s="118"/>
+      <c r="AS9" s="118"/>
+      <c r="AT9" s="118"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="117"/>
+      <c r="AW9" s="117"/>
+      <c r="AX9" s="118"/>
+      <c r="AY9" s="118"/>
+      <c r="AZ9" s="118"/>
+      <c r="BA9" s="118"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="117"/>
+      <c r="BD9" s="118"/>
+      <c r="BE9" s="118"/>
+      <c r="BF9" s="118"/>
+      <c r="BG9" s="118"/>
+      <c r="BH9" s="118"/>
+      <c r="BI9" s="116"/>
+      <c r="BJ9" s="117"/>
+      <c r="BK9" s="118"/>
+      <c r="BL9" s="118"/>
+      <c r="BM9" s="118"/>
+      <c r="BN9" s="119"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="132">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="199"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="72"/>
+    <row r="10" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A10" s="208"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="210" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="220"/>
+      <c r="E10" s="216" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="217"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="140"/>
+      <c r="AJ10" s="141"/>
+      <c r="AK10" s="142"/>
+      <c r="AL10" s="140"/>
+      <c r="AM10" s="140"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="140"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="138"/>
+      <c r="AV10" s="139"/>
+      <c r="AW10" s="139"/>
+      <c r="AX10" s="140"/>
+      <c r="AY10" s="140"/>
+      <c r="AZ10" s="140"/>
+      <c r="BA10" s="140"/>
+      <c r="BB10" s="138"/>
+      <c r="BC10" s="139"/>
+      <c r="BD10" s="140"/>
+      <c r="BE10" s="140"/>
+      <c r="BF10" s="140"/>
+      <c r="BG10" s="140"/>
+      <c r="BH10" s="140"/>
+      <c r="BI10" s="138"/>
+      <c r="BJ10" s="139"/>
+      <c r="BK10" s="140"/>
+      <c r="BL10" s="140"/>
+      <c r="BM10" s="140"/>
+      <c r="BN10" s="141"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="72"/>
+    <row r="11" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A11" s="209"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="134"/>
+      <c r="AK11" s="135"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="133"/>
+      <c r="AQ11" s="133"/>
+      <c r="AR11" s="133"/>
+      <c r="AS11" s="133"/>
+      <c r="AT11" s="133"/>
+      <c r="AU11" s="129"/>
+      <c r="AV11" s="130"/>
+      <c r="AW11" s="130"/>
+      <c r="AX11" s="133"/>
+      <c r="AY11" s="133"/>
+      <c r="AZ11" s="133"/>
+      <c r="BA11" s="133"/>
+      <c r="BB11" s="129"/>
+      <c r="BC11" s="130"/>
+      <c r="BD11" s="133"/>
+      <c r="BE11" s="133"/>
+      <c r="BF11" s="133"/>
+      <c r="BG11" s="133"/>
+      <c r="BH11" s="133"/>
+      <c r="BI11" s="129"/>
+      <c r="BJ11" s="130"/>
+      <c r="BK11" s="133"/>
+      <c r="BL11" s="133"/>
+      <c r="BM11" s="133"/>
+      <c r="BN11" s="134"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="105">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A12" s="208"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="73"/>
+      <c r="C12" s="210" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="211"/>
+      <c r="E12" s="214" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="217"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="71"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="74"/>
+    <row r="13" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A13" s="209"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="75"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="127">
+      <c r="A14" s="200">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="75"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="205" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="206"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="71"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="74"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="71"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="127">
-        <v>7</v>
+      <c r="A16" s="156">
+        <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="113"/>
+      <c r="C16" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="229"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
       <c r="N16" s="63"/>
@@ -4504,22 +5047,22 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="98"/>
       <c r="AD16" s="63"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="84"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="83"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4548,20 +5091,20 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="73"/>
+      <c r="BN16" s="72"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="126"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
       <c r="N17" s="64"/>
@@ -4586,8 +5129,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="85"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="84"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4616,511 +5159,521 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="74"/>
+      <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="127">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="64"/>
-      <c r="AZ18" s="64"/>
-      <c r="BA18" s="64"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="64"/>
-      <c r="BE18" s="64"/>
-      <c r="BF18" s="64"/>
-      <c r="BG18" s="64"/>
-      <c r="BH18" s="64"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="64"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="64"/>
-      <c r="BN18" s="77"/>
+      <c r="A18" s="230">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="198"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="74"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="78"/>
+      <c r="A19" s="230"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="105">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="200"/>
+      <c r="A20" s="230">
+        <v>7</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="161"/>
+      <c r="E20" s="234" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="229"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="79"/>
       <c r="AK20" s="90"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="79"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="72"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="63"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="63"/>
-      <c r="AR21" s="63"/>
-      <c r="AS21" s="63"/>
-      <c r="AT21" s="63"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="80"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="73"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="105">
-        <v>10</v>
+      <c r="A22" s="230">
+        <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="195" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="192"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="186"/>
-      <c r="AK22" s="187"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="63"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="63"/>
-      <c r="AQ22" s="63"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="63"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="63"/>
-      <c r="BE22" s="63"/>
-      <c r="BF22" s="63"/>
-      <c r="BG22" s="63"/>
-      <c r="BH22" s="63"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="80"/>
+      <c r="C22" s="160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="161"/>
+      <c r="E22" s="234" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="229"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="76"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="63"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="63"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="80"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="67"/>
+      <c r="AR23" s="67"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="67"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="67"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="67"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="67"/>
+      <c r="BL23" s="67"/>
+      <c r="BM23" s="67"/>
+      <c r="BN23" s="77"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="105">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="195" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="80"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="63"/>
-      <c r="AY24" s="63"/>
-      <c r="AZ24" s="63"/>
-      <c r="BA24" s="63"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="63"/>
-      <c r="BE24" s="63"/>
-      <c r="BF24" s="63"/>
-      <c r="BG24" s="63"/>
-      <c r="BH24" s="63"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="63"/>
-      <c r="BM24" s="63"/>
-      <c r="BN24" s="80"/>
+      <c r="A24" s="156">
+        <v>9</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="198"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="146"/>
+      <c r="AK24" s="89"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="78"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="106"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="191"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="171"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="207"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5150,8 +5703,8 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="91"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="90"/>
       <c r="AL25" s="63"/>
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
@@ -5180,19 +5733,21 @@
       <c r="BK25" s="63"/>
       <c r="BL25" s="63"/>
       <c r="BM25" s="63"/>
-      <c r="BN25" s="80"/>
+      <c r="BN25" s="79"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="105">
-        <v>12</v>
+      <c r="A26" s="156">
+        <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="195" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="192"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="190"/>
+      <c r="C26" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="153"/>
+      <c r="E26" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="150"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5222,15 +5777,15 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="63"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="147"/>
+      <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
       <c r="AT26" s="63"/>
       <c r="AU26" s="13"/>
@@ -5252,15 +5807,15 @@
       <c r="BK26" s="63"/>
       <c r="BL26" s="63"/>
       <c r="BM26" s="63"/>
-      <c r="BN26" s="80"/>
+      <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="106"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="191"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5290,8 +5845,8 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="91"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="90"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5320,19 +5875,21 @@
       <c r="BK27" s="63"/>
       <c r="BL27" s="63"/>
       <c r="BM27" s="63"/>
-      <c r="BN27" s="80"/>
+      <c r="BN27" s="79"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="105">
-        <v>13</v>
+      <c r="A28" s="156">
+        <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="195" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="190"/>
+      <c r="C28" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="153"/>
+      <c r="E28" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="150"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5362,22 +5919,22 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="91"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="90"/>
       <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
+      <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="63"/>
+      <c r="AP28" s="30"/>
       <c r="AQ28" s="63"/>
-      <c r="AR28" s="30"/>
+      <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
       <c r="AT28" s="63"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="30"/>
       <c r="AZ28" s="63"/>
       <c r="BA28" s="63"/>
       <c r="BB28" s="13"/>
@@ -5392,15 +5949,15 @@
       <c r="BK28" s="63"/>
       <c r="BL28" s="63"/>
       <c r="BM28" s="63"/>
-      <c r="BN28" s="80"/>
+      <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="106"/>
+      <c r="A29" s="157"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="191"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5430,8 +5987,8 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="91"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="90"/>
       <c r="AL29" s="63"/>
       <c r="AM29" s="63"/>
       <c r="AN29" s="13"/>
@@ -5460,19 +6017,21 @@
       <c r="BK29" s="63"/>
       <c r="BL29" s="63"/>
       <c r="BM29" s="63"/>
-      <c r="BN29" s="80"/>
+      <c r="BN29" s="79"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="105">
-        <v>14</v>
+      <c r="A30" s="156">
+        <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="113"/>
+      <c r="C30" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="153"/>
+      <c r="E30" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="150"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -5502,22 +6061,22 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="91"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="90"/>
       <c r="AL30" s="63"/>
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="30"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="63"/>
       <c r="AT30" s="63"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="30"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
       <c r="BB30" s="13"/>
@@ -5532,15 +6091,15 @@
       <c r="BK30" s="63"/>
       <c r="BL30" s="63"/>
       <c r="BM30" s="63"/>
-      <c r="BN30" s="80"/>
+      <c r="BN30" s="79"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="106"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="126"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5570,8 +6129,8 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="91"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="90"/>
       <c r="AL31" s="63"/>
       <c r="AM31" s="63"/>
       <c r="AN31" s="13"/>
@@ -5600,1189 +6159,955 @@
       <c r="BK31" s="63"/>
       <c r="BL31" s="63"/>
       <c r="BM31" s="63"/>
-      <c r="BN31" s="80"/>
+      <c r="BN31" s="79"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="105">
-        <v>15</v>
+      <c r="A32" s="156">
+        <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="64"/>
-      <c r="AY32" s="64"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="64"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="77"/>
+      <c r="C32" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="153"/>
+      <c r="E32" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="150"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="90"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="30"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="79"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="106"/>
+      <c r="A33" s="157"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="64"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="77"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="79"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="105">
-        <v>16</v>
+      <c r="A34" s="156">
+        <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="64"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="77"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="98"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="79"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="106"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="25"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="25"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="25"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="77"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="79"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="105">
-        <v>17</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="88"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="64"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="64"/>
-      <c r="BE36" s="64"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="25"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="77"/>
+      <c r="A36" s="156">
+        <v>15</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="248" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="249"/>
+      <c r="E36" s="246" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="252"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="78"/>
+      <c r="AK36" s="89"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="65"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="40"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="78"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="77"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="64"/>
-      <c r="BG37" s="64"/>
-      <c r="BH37" s="64"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="64"/>
-      <c r="BM37" s="64"/>
-      <c r="BN37" s="77"/>
+      <c r="A37" s="200"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="250"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="247"/>
+      <c r="F37" s="253"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="63"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="63"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="63"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="63"/>
+      <c r="AY37" s="63"/>
+      <c r="AZ37" s="63"/>
+      <c r="BA37" s="63"/>
+      <c r="BB37" s="13"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="63"/>
+      <c r="BE37" s="63"/>
+      <c r="BF37" s="63"/>
+      <c r="BG37" s="63"/>
+      <c r="BH37" s="63"/>
+      <c r="BI37" s="13"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="63"/>
+      <c r="BL37" s="63"/>
+      <c r="BM37" s="63"/>
+      <c r="BN37" s="79"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="105">
-        <v>18</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="77"/>
-      <c r="AK38" s="88"/>
-      <c r="AL38" s="64"/>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="64"/>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="64"/>
-      <c r="AS38" s="64"/>
-      <c r="AT38" s="64"/>
-      <c r="AU38" s="25"/>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="64"/>
-      <c r="AY38" s="64"/>
-      <c r="AZ38" s="64"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="25"/>
-      <c r="BC38" s="26"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="64"/>
-      <c r="BF38" s="64"/>
-      <c r="BG38" s="64"/>
-      <c r="BH38" s="64"/>
-      <c r="BI38" s="25"/>
-      <c r="BJ38" s="26"/>
-      <c r="BK38" s="64"/>
-      <c r="BL38" s="64"/>
-      <c r="BM38" s="64"/>
-      <c r="BN38" s="77"/>
+      <c r="A38" s="200"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="257" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="172"/>
+      <c r="E38" s="254" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="255"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="105"/>
+      <c r="AK38" s="106"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="62"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="62"/>
+      <c r="BA38" s="62"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="62"/>
+      <c r="BE38" s="62"/>
+      <c r="BF38" s="62"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="16"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="41"/>
+      <c r="BL38" s="41"/>
+      <c r="BM38" s="62"/>
+      <c r="BN38" s="105"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="64"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="251"/>
+      <c r="E39" s="239"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="67"/>
       <c r="AJ39" s="77"/>
       <c r="AK39" s="88"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="64"/>
-      <c r="BF39" s="64"/>
-      <c r="BG39" s="64"/>
-      <c r="BH39" s="64"/>
-      <c r="BI39" s="25"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="64"/>
-      <c r="BL39" s="64"/>
-      <c r="BM39" s="64"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="67"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="67"/>
+      <c r="AY39" s="67"/>
+      <c r="AZ39" s="67"/>
+      <c r="BA39" s="67"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="67"/>
+      <c r="BE39" s="67"/>
+      <c r="BF39" s="67"/>
+      <c r="BG39" s="67"/>
+      <c r="BH39" s="67"/>
+      <c r="BI39" s="17"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="67"/>
+      <c r="BL39" s="67"/>
+      <c r="BM39" s="67"/>
       <c r="BN39" s="77"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="105">
-        <v>19</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="77"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="25"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="64"/>
-      <c r="BH40" s="64"/>
-      <c r="BI40" s="25"/>
-      <c r="BJ40" s="26"/>
-      <c r="BK40" s="64"/>
-      <c r="BL40" s="64"/>
-      <c r="BM40" s="64"/>
-      <c r="BN40" s="77"/>
+      <c r="A40" s="156">
+        <v>16</v>
+      </c>
+      <c r="B40" s="242" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="231" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="232"/>
+      <c r="E40" s="238" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="107"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="105"/>
+      <c r="AK40" s="106"/>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="62"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="62"/>
+      <c r="BA40" s="62"/>
+      <c r="BB40" s="16"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="62"/>
+      <c r="BE40" s="62"/>
+      <c r="BF40" s="62"/>
+      <c r="BG40" s="41"/>
+      <c r="BH40" s="41"/>
+      <c r="BI40" s="16"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="62"/>
+      <c r="BL40" s="62"/>
+      <c r="BM40" s="62"/>
+      <c r="BN40" s="105"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="77"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="64"/>
-      <c r="AQ41" s="64"/>
-      <c r="AR41" s="64"/>
-      <c r="AS41" s="64"/>
-      <c r="AT41" s="64"/>
-      <c r="AU41" s="25"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="64"/>
-      <c r="AZ41" s="64"/>
-      <c r="BA41" s="64"/>
-      <c r="BB41" s="25"/>
-      <c r="BC41" s="26"/>
-      <c r="BD41" s="64"/>
-      <c r="BE41" s="64"/>
-      <c r="BF41" s="64"/>
-      <c r="BG41" s="64"/>
-      <c r="BH41" s="64"/>
-      <c r="BI41" s="25"/>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="64"/>
-      <c r="BL41" s="64"/>
-      <c r="BM41" s="64"/>
-      <c r="BN41" s="77"/>
+      <c r="A41" s="200"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="90"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="63"/>
+      <c r="BA41" s="63"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="63"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="63"/>
+      <c r="BG41" s="63"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="13"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="63"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
+      <c r="BN41" s="79"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="105">
-        <v>20</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="77"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="64"/>
-      <c r="AM42" s="64"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="64"/>
-      <c r="AQ42" s="64"/>
-      <c r="AR42" s="64"/>
-      <c r="AS42" s="64"/>
-      <c r="AT42" s="64"/>
-      <c r="AU42" s="25"/>
-      <c r="AV42" s="26"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="64"/>
-      <c r="AY42" s="64"/>
-      <c r="AZ42" s="64"/>
-      <c r="BA42" s="64"/>
-      <c r="BB42" s="25"/>
-      <c r="BC42" s="26"/>
-      <c r="BD42" s="64"/>
-      <c r="BE42" s="64"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="64"/>
-      <c r="BI42" s="25"/>
-      <c r="BJ42" s="26"/>
-      <c r="BK42" s="64"/>
-      <c r="BL42" s="64"/>
-      <c r="BM42" s="64"/>
-      <c r="BN42" s="77"/>
+      <c r="A42" s="200"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="237" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="161"/>
+      <c r="E42" s="238" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="240"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="106"/>
+      <c r="AL42" s="62"/>
+      <c r="AM42" s="62"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="16"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="62"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="22"/>
+      <c r="BD42" s="62"/>
+      <c r="BE42" s="62"/>
+      <c r="BF42" s="62"/>
+      <c r="BG42" s="62"/>
+      <c r="BH42" s="62"/>
+      <c r="BI42" s="16"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="62"/>
+      <c r="BN42" s="105"/>
     </row>
-    <row r="43" spans="1:66" ht="12" customHeight="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
+    <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A43" s="157"/>
+      <c r="B43" s="244"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="239"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
       <c r="V43" s="68"/>
       <c r="W43" s="68"/>
       <c r="X43" s="68"/>
       <c r="Y43" s="68"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
       <c r="AC43" s="68"/>
       <c r="AD43" s="68"/>
       <c r="AE43" s="68"/>
       <c r="AF43" s="68"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="23"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="20"/>
       <c r="AI43" s="68"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="89"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="91"/>
       <c r="AL43" s="68"/>
       <c r="AM43" s="68"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="23"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="20"/>
       <c r="AP43" s="68"/>
       <c r="AQ43" s="68"/>
       <c r="AR43" s="68"/>
       <c r="AS43" s="68"/>
       <c r="AT43" s="68"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="23"/>
-      <c r="AW43" s="23"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="20"/>
+      <c r="AW43" s="20"/>
       <c r="AX43" s="68"/>
       <c r="AY43" s="68"/>
       <c r="AZ43" s="68"/>
       <c r="BA43" s="68"/>
-      <c r="BB43" s="17"/>
-      <c r="BC43" s="23"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="20"/>
       <c r="BD43" s="68"/>
       <c r="BE43" s="68"/>
       <c r="BF43" s="68"/>
       <c r="BG43" s="68"/>
       <c r="BH43" s="68"/>
-      <c r="BI43" s="17"/>
-      <c r="BJ43" s="23"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="20"/>
       <c r="BK43" s="68"/>
       <c r="BL43" s="68"/>
       <c r="BM43" s="68"/>
-      <c r="BN43" s="78"/>
+      <c r="BN43" s="80"/>
     </row>
-    <row r="44" spans="1:66" ht="12" customHeight="1">
-      <c r="A44" s="105">
-        <v>21</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="117"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="79"/>
-      <c r="AK44" s="90"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="15"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
-      <c r="AR44" s="65"/>
-      <c r="AS44" s="65"/>
-      <c r="AT44" s="65"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="65"/>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="65"/>
-      <c r="BB44" s="15"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="65"/>
-      <c r="BE44" s="65"/>
-      <c r="BF44" s="65"/>
-      <c r="BG44" s="65"/>
-      <c r="BH44" s="40"/>
-      <c r="BI44" s="15"/>
-      <c r="BJ44" s="21"/>
-      <c r="BK44" s="40"/>
-      <c r="BL44" s="65"/>
-      <c r="BM44" s="65"/>
-      <c r="BN44" s="79"/>
+    <row r="44" spans="1:66">
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:66" ht="12" customHeight="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="63"/>
-      <c r="AM45" s="63"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="63"/>
-      <c r="AQ45" s="63"/>
-      <c r="AR45" s="63"/>
-      <c r="AS45" s="63"/>
-      <c r="AT45" s="63"/>
-      <c r="AU45" s="13"/>
-      <c r="AV45" s="19"/>
-      <c r="AW45" s="19"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="63"/>
-      <c r="AZ45" s="63"/>
-      <c r="BA45" s="63"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="19"/>
-      <c r="BD45" s="63"/>
-      <c r="BE45" s="63"/>
-      <c r="BF45" s="63"/>
-      <c r="BG45" s="63"/>
-      <c r="BH45" s="63"/>
-      <c r="BI45" s="13"/>
-      <c r="BJ45" s="19"/>
-      <c r="BK45" s="63"/>
-      <c r="BL45" s="63"/>
-      <c r="BM45" s="63"/>
-      <c r="BN45" s="80"/>
+    <row r="45" spans="1:66">
+      <c r="A45" s="27"/>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="1:66" ht="12" customHeight="1">
-      <c r="A46" s="105">
-        <v>22</v>
-      </c>
-      <c r="B46" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="65"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="65"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="90"/>
-      <c r="AL46" s="65"/>
-      <c r="AM46" s="65"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="65"/>
-      <c r="AQ46" s="65"/>
-      <c r="AR46" s="65"/>
-      <c r="AS46" s="65"/>
-      <c r="AT46" s="65"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="65"/>
-      <c r="AY46" s="65"/>
-      <c r="AZ46" s="65"/>
-      <c r="BA46" s="65"/>
-      <c r="BB46" s="15"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="65"/>
-      <c r="BE46" s="65"/>
-      <c r="BF46" s="65"/>
-      <c r="BG46" s="65"/>
-      <c r="BH46" s="65"/>
-      <c r="BI46" s="15"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="65"/>
-      <c r="BL46" s="40"/>
-      <c r="BM46" s="40"/>
-      <c r="BN46" s="79"/>
+    <row r="46" spans="1:66">
+      <c r="A46" s="28"/>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A47" s="106"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="69"/>
-      <c r="AD47" s="69"/>
-      <c r="AE47" s="69"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="14"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
-      <c r="AS47" s="69"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="69"/>
-      <c r="AY47" s="69"/>
-      <c r="AZ47" s="69"/>
-      <c r="BA47" s="69"/>
-      <c r="BB47" s="14"/>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="69"/>
-      <c r="BE47" s="69"/>
-      <c r="BF47" s="69"/>
-      <c r="BG47" s="69"/>
-      <c r="BH47" s="69"/>
-      <c r="BI47" s="14"/>
-      <c r="BJ47" s="20"/>
-      <c r="BK47" s="69"/>
-      <c r="BL47" s="69"/>
-      <c r="BM47" s="69"/>
-      <c r="BN47" s="81"/>
-    </row>
-    <row r="48" spans="1:66">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+    <row r="47" spans="1:66">
+      <c r="A47" s="104"/>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C40:D41"/>
+  <mergeCells count="87">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="C32:D33"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -6791,55 +7116,14 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6883,54 +7167,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="173" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="160"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="179"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7005,12 +7289,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="178"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="197"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7085,20 +7369,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="151">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154" t="s">
+      <c r="D4" s="170"/>
+      <c r="E4" s="287" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="289"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7121,20 +7405,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="182" t="s">
+      <c r="AC4" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="179" t="s">
+      <c r="AD4" s="280" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="157"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="290"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7157,22 +7441,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="183"/>
-      <c r="AD5" s="180"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="281"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="95">
+      <c r="A6" s="158">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="161"/>
+      <c r="E6" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="285"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7195,16 +7479,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="180"/>
+      <c r="AC6" s="292"/>
+      <c r="AD6" s="281"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="150"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7227,24 +7511,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="180"/>
+      <c r="AC7" s="292"/>
+      <c r="AD7" s="281"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="105">
+      <c r="A8" s="156">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="202"/>
+      <c r="E8" s="295" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="125"/>
+      <c r="F8" s="276"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7267,16 +7551,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="180"/>
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="281"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="273"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7299,24 +7583,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="180"/>
+      <c r="AC9" s="292"/>
+      <c r="AD9" s="281"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="132">
+      <c r="A10" s="200">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="136" t="s">
+      <c r="D10" s="224"/>
+      <c r="E10" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="278"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7339,16 +7623,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="180"/>
+      <c r="AC10" s="292"/>
+      <c r="AD10" s="281"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="126"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="272"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7371,22 +7655,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="180"/>
+      <c r="AC11" s="292"/>
+      <c r="AD11" s="281"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="105">
+      <c r="A12" s="156">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="135" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="271"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7409,16 +7693,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="180"/>
+      <c r="AC12" s="292"/>
+      <c r="AD12" s="281"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="132"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="278"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7441,24 +7725,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="180"/>
+      <c r="AC13" s="292"/>
+      <c r="AD13" s="281"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="127">
+      <c r="A14" s="230">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="232"/>
+      <c r="E14" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="276"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7481,16 +7765,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="180"/>
+      <c r="AC14" s="292"/>
+      <c r="AD14" s="281"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="126"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="272"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7513,22 +7797,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="180"/>
+      <c r="AC15" s="292"/>
+      <c r="AD15" s="281"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="127">
+      <c r="A16" s="230">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111" t="s">
+      <c r="D16" s="161"/>
+      <c r="E16" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="271"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7551,16 +7835,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="180"/>
+      <c r="AC16" s="292"/>
+      <c r="AD16" s="281"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="126"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="272"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7583,22 +7867,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="180"/>
+      <c r="AC17" s="292"/>
+      <c r="AD17" s="281"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="127">
+      <c r="A18" s="230">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111" t="s">
+      <c r="D18" s="161"/>
+      <c r="E18" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="271"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7621,16 +7905,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="180"/>
+      <c r="AC18" s="292"/>
+      <c r="AD18" s="281"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="273"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7653,24 +7937,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="180"/>
+      <c r="AC19" s="292"/>
+      <c r="AD19" s="281"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="105">
+      <c r="A20" s="156">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="124" t="s">
+      <c r="D20" s="232"/>
+      <c r="E20" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="125"/>
+      <c r="F20" s="276"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7693,18 +7977,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="180"/>
+      <c r="AC20" s="292"/>
+      <c r="AD20" s="281"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="106"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="126"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="272"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7727,22 +8011,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="180"/>
+      <c r="AC21" s="292"/>
+      <c r="AD21" s="281"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="105">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="111" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="271"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7765,16 +8049,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="180"/>
+      <c r="AC22" s="292"/>
+      <c r="AD22" s="281"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="126"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="272"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7797,22 +8081,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="180"/>
+      <c r="AC23" s="292"/>
+      <c r="AD23" s="281"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="105">
+      <c r="A24" s="156">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="111" t="s">
+      <c r="D24" s="161"/>
+      <c r="E24" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="113"/>
+      <c r="F24" s="271"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7835,16 +8119,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="180"/>
+      <c r="AC24" s="292"/>
+      <c r="AD24" s="281"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="273"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7867,24 +8151,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="180"/>
+      <c r="AC25" s="292"/>
+      <c r="AD25" s="281"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="95">
+      <c r="A26" s="158">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="120" t="s">
+      <c r="D26" s="249"/>
+      <c r="E26" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="260"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7907,16 +8191,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="180"/>
+      <c r="AC26" s="292"/>
+      <c r="AD26" s="281"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="123"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="261"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7939,24 +8223,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="180"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="281"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="95">
+      <c r="A28" s="158">
         <v>14</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="97" t="s">
+      <c r="D28" s="232"/>
+      <c r="E28" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="103"/>
+      <c r="F28" s="267"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7979,16 +8263,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="180"/>
+      <c r="AC28" s="292"/>
+      <c r="AD28" s="281"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="104"/>
+      <c r="A29" s="262"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="268"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8011,8 +8295,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="181"/>
+      <c r="AC29" s="293"/>
+      <c r="AD29" s="282"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8032,45 +8316,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8087,12 +8338,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F7846-60D8-4F99-A2B0-DECDFC7A923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6B221-5C43-41B9-B405-2E0E6214F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2041,7 +2041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2395,9 +2395,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2425,9 +2422,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2475,13 +2469,142 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2500,11 +2623,158 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2512,18 +2782,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2545,12 +2803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2563,247 +2815,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,86 +2929,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3628,7 +3640,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z42" sqref="Z42"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3645,94 +3657,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="195" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="177">
+      <c r="G1" s="227">
         <v>45536</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="179"/>
-      <c r="AK1" s="177">
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="227">
         <v>45566</v>
       </c>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="178"/>
-      <c r="BF1" s="178"/>
-      <c r="BG1" s="178"/>
-      <c r="BH1" s="178"/>
-      <c r="BI1" s="178"/>
-      <c r="BJ1" s="178"/>
-      <c r="BK1" s="178"/>
-      <c r="BL1" s="178"/>
-      <c r="BM1" s="178"/>
-      <c r="BN1" s="179"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="228"/>
+      <c r="BD1" s="228"/>
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="228"/>
+      <c r="BI1" s="228"/>
+      <c r="BJ1" s="228"/>
+      <c r="BK1" s="228"/>
+      <c r="BL1" s="228"/>
+      <c r="BM1" s="228"/>
+      <c r="BN1" s="229"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="196"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3974,12 +3986,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="197"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4162,20 +4174,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="168">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="173" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="259" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="94"/>
@@ -4240,12 +4252,12 @@
       <c r="BN4" s="70"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="176"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="96"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4253,7 +4265,7 @@
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -4308,18 +4320,18 @@
       <c r="BN5" s="71"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="158">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="164" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="252" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4384,12 +4396,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="97"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="167"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4397,7 +4409,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
       <c r="Q7" s="64"/>
@@ -4452,20 +4464,20 @@
       <c r="BN7" s="73"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="200">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="201" t="s">
+      <c r="C8" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="202"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="198"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4528,12 +4540,12 @@
       <c r="BN8" s="74"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="157"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="108"/>
       <c r="C9" s="223"/>
       <c r="D9" s="224"/>
       <c r="E9" s="226"/>
-      <c r="F9" s="199"/>
+      <c r="F9" s="203"/>
       <c r="G9" s="114"/>
       <c r="H9" s="115"/>
       <c r="I9" s="115"/>
@@ -4541,10 +4553,10 @@
       <c r="K9" s="115"/>
       <c r="L9" s="116"/>
       <c r="M9" s="117"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
       <c r="R9" s="115"/>
       <c r="S9" s="116"/>
       <c r="T9" s="117"/>
@@ -4606,73 +4618,73 @@
         <v>46</v>
       </c>
       <c r="F10" s="217"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="140"/>
-      <c r="AJ10" s="141"/>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="140"/>
-      <c r="AM10" s="140"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="140"/>
-      <c r="AQ10" s="140"/>
-      <c r="AR10" s="140"/>
-      <c r="AS10" s="140"/>
-      <c r="AT10" s="140"/>
-      <c r="AU10" s="138"/>
-      <c r="AV10" s="139"/>
-      <c r="AW10" s="139"/>
-      <c r="AX10" s="140"/>
-      <c r="AY10" s="140"/>
-      <c r="AZ10" s="140"/>
-      <c r="BA10" s="140"/>
-      <c r="BB10" s="138"/>
-      <c r="BC10" s="139"/>
-      <c r="BD10" s="140"/>
-      <c r="BE10" s="140"/>
-      <c r="BF10" s="140"/>
-      <c r="BG10" s="140"/>
-      <c r="BH10" s="140"/>
-      <c r="BI10" s="138"/>
-      <c r="BJ10" s="139"/>
-      <c r="BK10" s="140"/>
-      <c r="BL10" s="140"/>
-      <c r="BM10" s="140"/>
-      <c r="BN10" s="141"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="137"/>
+      <c r="AI10" s="138"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="138"/>
+      <c r="AM10" s="138"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="137"/>
+      <c r="AP10" s="138"/>
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="138"/>
+      <c r="AS10" s="138"/>
+      <c r="AT10" s="138"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="137"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="138"/>
+      <c r="AY10" s="138"/>
+      <c r="AZ10" s="138"/>
+      <c r="BA10" s="138"/>
+      <c r="BB10" s="136"/>
+      <c r="BC10" s="137"/>
+      <c r="BD10" s="138"/>
+      <c r="BE10" s="138"/>
+      <c r="BF10" s="138"/>
+      <c r="BG10" s="138"/>
+      <c r="BH10" s="138"/>
+      <c r="BI10" s="136"/>
+      <c r="BJ10" s="137"/>
+      <c r="BK10" s="138"/>
+      <c r="BL10" s="138"/>
+      <c r="BM10" s="138"/>
+      <c r="BN10" s="139"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
       <c r="A11" s="209"/>
       <c r="B11" s="108"/>
       <c r="C11" s="221"/>
       <c r="D11" s="222"/>
-      <c r="E11" s="205"/>
+      <c r="E11" s="201"/>
       <c r="F11" s="218"/>
       <c r="G11" s="109"/>
       <c r="H11" s="110"/>
@@ -4681,59 +4693,59 @@
       <c r="K11" s="110"/>
       <c r="L11" s="111"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="133"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="133"/>
-      <c r="AJ11" s="134"/>
-      <c r="AK11" s="135"/>
-      <c r="AL11" s="133"/>
-      <c r="AM11" s="133"/>
-      <c r="AN11" s="129"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="133"/>
-      <c r="AQ11" s="133"/>
-      <c r="AR11" s="133"/>
-      <c r="AS11" s="133"/>
-      <c r="AT11" s="133"/>
-      <c r="AU11" s="129"/>
-      <c r="AV11" s="130"/>
-      <c r="AW11" s="130"/>
-      <c r="AX11" s="133"/>
-      <c r="AY11" s="133"/>
-      <c r="AZ11" s="133"/>
-      <c r="BA11" s="133"/>
-      <c r="BB11" s="129"/>
-      <c r="BC11" s="130"/>
-      <c r="BD11" s="133"/>
-      <c r="BE11" s="133"/>
-      <c r="BF11" s="133"/>
-      <c r="BG11" s="133"/>
-      <c r="BH11" s="133"/>
-      <c r="BI11" s="129"/>
-      <c r="BJ11" s="130"/>
-      <c r="BK11" s="133"/>
-      <c r="BL11" s="133"/>
-      <c r="BM11" s="133"/>
-      <c r="BN11" s="134"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="131"/>
+      <c r="AM11" s="131"/>
+      <c r="AN11" s="128"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="131"/>
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="131"/>
+      <c r="AS11" s="131"/>
+      <c r="AT11" s="131"/>
+      <c r="AU11" s="128"/>
+      <c r="AV11" s="129"/>
+      <c r="AW11" s="129"/>
+      <c r="AX11" s="131"/>
+      <c r="AY11" s="131"/>
+      <c r="AZ11" s="131"/>
+      <c r="BA11" s="131"/>
+      <c r="BB11" s="128"/>
+      <c r="BC11" s="129"/>
+      <c r="BD11" s="131"/>
+      <c r="BE11" s="131"/>
+      <c r="BF11" s="131"/>
+      <c r="BG11" s="131"/>
+      <c r="BH11" s="131"/>
+      <c r="BI11" s="128"/>
+      <c r="BJ11" s="129"/>
+      <c r="BK11" s="131"/>
+      <c r="BL11" s="131"/>
+      <c r="BM11" s="131"/>
+      <c r="BN11" s="132"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
       <c r="A12" s="208"/>
@@ -4746,15 +4758,15 @@
         <v>46</v>
       </c>
       <c r="F12" s="217"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="132"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="106"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
@@ -4814,17 +4826,17 @@
       <c r="D13" s="213"/>
       <c r="E13" s="215"/>
       <c r="F13" s="219"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="66"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="299"/>
       <c r="R13" s="66"/>
       <c r="S13" s="44"/>
       <c r="T13" s="45"/>
@@ -4876,20 +4888,20 @@
       <c r="BN13" s="75"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="200">
+      <c r="A14" s="154">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="202"/>
-      <c r="E14" s="205" t="s">
+      <c r="D14" s="205"/>
+      <c r="E14" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="206"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4905,7 +4917,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="145"/>
+      <c r="V14" s="143"/>
       <c r="W14" s="41"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
@@ -4952,12 +4964,12 @@
       <c r="BN14" s="71"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="157"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="207"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5020,18 +5032,18 @@
       <c r="BN15" s="71"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="156">
+      <c r="A16" s="153">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="148" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="229"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5094,12 +5106,12 @@
       <c r="BN16" s="72"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="200"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="206"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5162,20 +5174,20 @@
       <c r="BN17" s="73"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="230">
+      <c r="A18" s="197">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="198"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5238,12 +5250,12 @@
       <c r="BN18" s="74"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="207"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5306,18 +5318,18 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="230">
+      <c r="A20" s="197">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="234" t="s">
+      <c r="D20" s="169"/>
+      <c r="E20" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="229"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5380,12 +5392,12 @@
       <c r="BN20" s="72"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="230"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="207"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="187"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5448,18 +5460,18 @@
       <c r="BN21" s="73"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="230">
+      <c r="A22" s="197">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="234" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="229"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5522,12 +5534,12 @@
       <c r="BN22" s="76"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="230"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="236"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5590,20 +5602,20 @@
       <c r="BN23" s="77"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="153">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="231" t="s">
+      <c r="C24" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="232"/>
-      <c r="E24" s="233" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="198"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5633,7 +5645,7 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="65"/>
-      <c r="AJ24" s="146"/>
+      <c r="AJ24" s="144"/>
       <c r="AK24" s="89"/>
       <c r="AL24" s="65"/>
       <c r="AM24" s="65"/>
@@ -5666,14 +5678,14 @@
       <c r="BN24" s="78"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="157"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="207"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5736,18 +5748,18 @@
       <c r="BN25" s="79"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="153">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="153"/>
-      <c r="E26" s="148" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="150"/>
+      <c r="F26" s="191"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5778,7 +5790,7 @@
       <c r="AH26" s="19"/>
       <c r="AI26" s="63"/>
       <c r="AJ26" s="95"/>
-      <c r="AK26" s="147"/>
+      <c r="AK26" s="145"/>
       <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="13"/>
@@ -5810,12 +5822,12 @@
       <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="157"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="151"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="192"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5878,18 +5890,18 @@
       <c r="BN27" s="79"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="153">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="148" t="s">
+      <c r="D28" s="194"/>
+      <c r="E28" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="150"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5952,12 +5964,12 @@
       <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="157"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="151"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="192"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6020,18 +6032,18 @@
       <c r="BN29" s="79"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="156">
+      <c r="A30" s="153">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="153"/>
-      <c r="E30" s="148" t="s">
+      <c r="D30" s="194"/>
+      <c r="E30" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="150"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6094,12 +6106,12 @@
       <c r="BN30" s="79"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="157"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="151"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6162,18 +6174,18 @@
       <c r="BN31" s="79"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="156">
+      <c r="A32" s="153">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="148" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="150"/>
+      <c r="F32" s="191"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6236,12 +6248,12 @@
       <c r="BN32" s="79"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="157"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="151"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="192"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6304,18 +6316,18 @@
       <c r="BN33" s="79"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="156">
+      <c r="A34" s="153">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="237" t="s">
+      <c r="C34" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="234" t="s">
+      <c r="D34" s="169"/>
+      <c r="E34" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="229"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6378,12 +6390,12 @@
       <c r="BN34" s="79"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="157"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="207"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6446,20 +6458,20 @@
       <c r="BN35" s="79"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="156">
+      <c r="A36" s="153">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="248" t="s">
+      <c r="C36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="249"/>
-      <c r="E36" s="246" t="s">
+      <c r="D36" s="156"/>
+      <c r="E36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="252"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6522,12 +6534,12 @@
       <c r="BN36" s="78"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="200"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="250"/>
-      <c r="D37" s="251"/>
-      <c r="E37" s="247"/>
-      <c r="F37" s="253"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="160"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6590,16 +6602,16 @@
       <c r="BN37" s="79"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="200"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="257" t="s">
+      <c r="C38" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="254" t="s">
+      <c r="D38" s="167"/>
+      <c r="E38" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="255"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6662,12 +6674,12 @@
       <c r="BN38" s="105"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="157"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="250"/>
-      <c r="D39" s="251"/>
-      <c r="E39" s="239"/>
-      <c r="F39" s="256"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6730,17 +6742,17 @@
       <c r="BN39" s="77"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="156">
+      <c r="A40" s="153">
         <v>16</v>
       </c>
-      <c r="B40" s="242" t="s">
+      <c r="B40" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="231" t="s">
+      <c r="C40" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="232"/>
-      <c r="E40" s="238" t="s">
+      <c r="D40" s="180"/>
+      <c r="E40" s="172" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="107"/>
@@ -6806,11 +6818,11 @@
       <c r="BN40" s="105"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="200"/>
-      <c r="B41" s="243"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="228"/>
-      <c r="E41" s="245"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="107"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6874,16 +6886,16 @@
       <c r="BN41" s="79"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="200"/>
-      <c r="B42" s="243"/>
-      <c r="C42" s="237" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="161"/>
-      <c r="E42" s="238" t="s">
+      <c r="D42" s="169"/>
+      <c r="E42" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="240"/>
+      <c r="F42" s="173"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6946,12 +6958,12 @@
       <c r="BN42" s="105"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="244"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="241"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="174"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7037,22 +7049,61 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -7069,61 +7120,22 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7167,54 +7179,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="195" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="177"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="179"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="229"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="196"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7289,12 +7301,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="197"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7369,20 +7381,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="168">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="287" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="289"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7405,20 +7417,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="291" t="s">
+      <c r="AC4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="280" t="s">
+      <c r="AD4" s="261" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="290"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="271"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7441,22 +7453,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="281"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="262"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="158">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="283" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="285"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7479,16 +7491,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="292"/>
-      <c r="AD6" s="281"/>
+      <c r="AC6" s="273"/>
+      <c r="AD6" s="262"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="286"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7511,24 +7523,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="292"/>
-      <c r="AD7" s="281"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="262"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="156">
+      <c r="A8" s="153">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="201" t="s">
+      <c r="C8" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="202"/>
-      <c r="E8" s="295" t="s">
+      <c r="D8" s="205"/>
+      <c r="E8" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="276"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7551,16 +7563,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="292"/>
-      <c r="AD8" s="281"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="262"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="157"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="37"/>
       <c r="C9" s="212"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="273"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7583,11 +7595,11 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="292"/>
-      <c r="AD9" s="281"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="262"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="200">
+      <c r="A10" s="154">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -7597,10 +7609,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="224"/>
-      <c r="E10" s="277" t="s">
+      <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="278"/>
+      <c r="F10" s="282"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7623,16 +7635,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="292"/>
-      <c r="AD10" s="281"/>
+      <c r="AC10" s="273"/>
+      <c r="AD10" s="262"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="157"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="272"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="283"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7655,22 +7667,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="292"/>
-      <c r="AD11" s="281"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="262"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="156">
+      <c r="A12" s="153">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="279" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="271"/>
+      <c r="F12" s="285"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7693,16 +7705,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="292"/>
-      <c r="AD12" s="281"/>
+      <c r="AC12" s="273"/>
+      <c r="AD12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="200"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7725,24 +7737,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="292"/>
-      <c r="AD13" s="281"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="262"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="230">
+      <c r="A14" s="197">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="231" t="s">
+      <c r="C14" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="232"/>
-      <c r="E14" s="275" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="276"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7765,16 +7777,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="292"/>
-      <c r="AD14" s="281"/>
+      <c r="AC14" s="273"/>
+      <c r="AD14" s="262"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="272"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="283"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7797,22 +7809,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="292"/>
-      <c r="AD15" s="281"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="262"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="230">
+      <c r="A16" s="197">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="269" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="287" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="271"/>
+      <c r="F16" s="285"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7835,16 +7847,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="292"/>
-      <c r="AD16" s="281"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="262"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="272"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="283"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7867,22 +7879,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="292"/>
-      <c r="AD17" s="281"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="262"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="230">
+      <c r="A18" s="197">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="269" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="271"/>
+      <c r="F18" s="285"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7905,16 +7917,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="292"/>
-      <c r="AD18" s="281"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="262"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="273"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7937,24 +7949,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="292"/>
-      <c r="AD19" s="281"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="262"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="156">
+      <c r="A20" s="153">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="C20" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="232"/>
-      <c r="E20" s="275" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="276"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7977,18 +7989,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="292"/>
-      <c r="AD20" s="281"/>
+      <c r="AC20" s="273"/>
+      <c r="AD20" s="262"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="157"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="272"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="283"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8011,22 +8023,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="292"/>
-      <c r="AD21" s="281"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="156">
+      <c r="A22" s="153">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="237" t="s">
+      <c r="C22" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="269" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="271"/>
+      <c r="F22" s="285"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8049,16 +8061,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="292"/>
-      <c r="AD22" s="281"/>
+      <c r="AC22" s="273"/>
+      <c r="AD22" s="262"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="157"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="270"/>
-      <c r="F23" s="272"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="283"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8081,22 +8093,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="292"/>
-      <c r="AD23" s="281"/>
+      <c r="AC23" s="273"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="153">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="237" t="s">
+      <c r="C24" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="269" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="271"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8119,16 +8131,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="292"/>
-      <c r="AD24" s="281"/>
+      <c r="AC24" s="273"/>
+      <c r="AD24" s="262"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="157"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="273"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8151,24 +8163,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="292"/>
-      <c r="AD25" s="281"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="262"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="158">
+      <c r="A26" s="248">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="249"/>
-      <c r="E26" s="258" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="260"/>
+      <c r="F26" s="290"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8191,16 +8203,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="292"/>
-      <c r="AD26" s="281"/>
+      <c r="AC26" s="273"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="261"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="291"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8223,24 +8235,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="281"/>
+      <c r="AC27" s="273"/>
+      <c r="AD27" s="262"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="158">
+      <c r="A28" s="248">
         <v>14</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="293" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="231" t="s">
+      <c r="C28" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="232"/>
-      <c r="E28" s="263" t="s">
+      <c r="D28" s="180"/>
+      <c r="E28" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="267"/>
+      <c r="F28" s="297"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8263,16 +8275,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="281"/>
+      <c r="AC28" s="273"/>
+      <c r="AD28" s="262"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="262"/>
-      <c r="B29" s="264"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="264"/>
-      <c r="F29" s="268"/>
+      <c r="A29" s="292"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8295,8 +8307,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="282"/>
+      <c r="AC29" s="274"/>
+      <c r="AD29" s="263"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8316,12 +8328,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8338,45 +8383,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6B221-5C43-41B9-B405-2E0E6214F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3706D-33EE-48E4-AA8B-A25B73A2113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -2041,7 +2041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2232,9 +2232,6 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2485,18 +2482,309 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2515,15 +2803,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,287 +2815,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2862,75 +2928,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3640,7 +3637,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3650,101 +3647,101 @@
     <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="103" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="102" customWidth="1"/>
     <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
     <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="228"/>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="228"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="227">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="228"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
-      <c r="BB1" s="228"/>
-      <c r="BC1" s="228"/>
-      <c r="BD1" s="228"/>
-      <c r="BE1" s="228"/>
-      <c r="BF1" s="228"/>
-      <c r="BG1" s="228"/>
-      <c r="BH1" s="228"/>
-      <c r="BI1" s="228"/>
-      <c r="BJ1" s="228"/>
-      <c r="BK1" s="228"/>
-      <c r="BL1" s="228"/>
-      <c r="BM1" s="228"/>
-      <c r="BN1" s="229"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3986,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4079,10 +4076,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="69" t="s">
+      <c r="AJ3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="92" t="s">
+      <c r="AK3" s="91" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -4091,19 +4088,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="93" t="s">
+      <c r="AN3" s="92" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="93" t="s">
+      <c r="AP3" s="92" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="93" t="s">
+      <c r="AR3" s="92" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -4112,19 +4109,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="93" t="s">
+      <c r="AU3" s="92" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="93" t="s">
+      <c r="AW3" s="92" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="93" t="s">
+      <c r="AY3" s="92" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -4133,19 +4130,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="93" t="s">
+      <c r="BB3" s="92" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="93" t="s">
+      <c r="BD3" s="92" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="93" t="s">
+      <c r="BF3" s="92" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -4154,50 +4151,50 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="93" t="s">
+      <c r="BI3" s="92" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="93" t="s">
+      <c r="BK3" s="92" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="93" t="s">
+      <c r="BM3" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="69" t="s">
+      <c r="BN3" s="68" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="259" t="s">
+      <c r="F4" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="94"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="99"/>
+      <c r="N4" s="98"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -4219,8 +4216,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="81"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="80"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -4249,16 +4246,16 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="70"/>
+      <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="96"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
@@ -4287,8 +4284,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="82"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="81"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -4317,21 +4314,21 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="71"/>
+      <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="250" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="169" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4341,7 +4338,7 @@
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="98"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -4363,8 +4360,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="83"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="82"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -4393,15 +4390,15 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="72"/>
+      <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="253"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4431,8 +4428,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="84"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="83"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -4461,23 +4458,23 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="73"/>
+      <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="203">
         <v>3</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="204" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="201"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4493,7 +4490,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="65"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -4507,8 +4504,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="85"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="84"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -4537,243 +4534,243 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="74"/>
+      <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="117"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="117"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="116"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="118"/>
-      <c r="AR9" s="118"/>
-      <c r="AS9" s="118"/>
-      <c r="AT9" s="118"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="117"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="118"/>
-      <c r="AZ9" s="118"/>
-      <c r="BA9" s="118"/>
-      <c r="BB9" s="116"/>
-      <c r="BC9" s="117"/>
-      <c r="BD9" s="118"/>
-      <c r="BE9" s="118"/>
-      <c r="BF9" s="118"/>
-      <c r="BG9" s="118"/>
-      <c r="BH9" s="118"/>
-      <c r="BI9" s="116"/>
-      <c r="BJ9" s="117"/>
-      <c r="BK9" s="118"/>
-      <c r="BL9" s="118"/>
-      <c r="BM9" s="118"/>
-      <c r="BN9" s="119"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="117"/>
+      <c r="AY9" s="117"/>
+      <c r="AZ9" s="117"/>
+      <c r="BA9" s="117"/>
+      <c r="BB9" s="115"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="117"/>
+      <c r="BE9" s="117"/>
+      <c r="BF9" s="117"/>
+      <c r="BG9" s="117"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="115"/>
+      <c r="BJ9" s="116"/>
+      <c r="BK9" s="117"/>
+      <c r="BL9" s="117"/>
+      <c r="BM9" s="117"/>
+      <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="208"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="210" t="s">
+      <c r="A10" s="211"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="223"/>
+      <c r="E10" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="217"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="137"/>
-      <c r="AI10" s="138"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="140"/>
-      <c r="AL10" s="138"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="137"/>
-      <c r="AP10" s="138"/>
-      <c r="AQ10" s="138"/>
-      <c r="AR10" s="138"/>
-      <c r="AS10" s="138"/>
-      <c r="AT10" s="138"/>
-      <c r="AU10" s="136"/>
-      <c r="AV10" s="137"/>
-      <c r="AW10" s="137"/>
-      <c r="AX10" s="138"/>
-      <c r="AY10" s="138"/>
-      <c r="AZ10" s="138"/>
-      <c r="BA10" s="138"/>
-      <c r="BB10" s="136"/>
-      <c r="BC10" s="137"/>
-      <c r="BD10" s="138"/>
-      <c r="BE10" s="138"/>
-      <c r="BF10" s="138"/>
-      <c r="BG10" s="138"/>
-      <c r="BH10" s="138"/>
-      <c r="BI10" s="136"/>
-      <c r="BJ10" s="137"/>
-      <c r="BK10" s="138"/>
-      <c r="BL10" s="138"/>
-      <c r="BM10" s="138"/>
-      <c r="BN10" s="139"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="136"/>
+      <c r="AB10" s="136"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
+      <c r="AJ10" s="138"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="137"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="136"/>
+      <c r="AP10" s="137"/>
+      <c r="AQ10" s="137"/>
+      <c r="AR10" s="137"/>
+      <c r="AS10" s="137"/>
+      <c r="AT10" s="137"/>
+      <c r="AU10" s="135"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="136"/>
+      <c r="AX10" s="137"/>
+      <c r="AY10" s="137"/>
+      <c r="AZ10" s="137"/>
+      <c r="BA10" s="137"/>
+      <c r="BB10" s="135"/>
+      <c r="BC10" s="136"/>
+      <c r="BD10" s="137"/>
+      <c r="BE10" s="137"/>
+      <c r="BF10" s="137"/>
+      <c r="BG10" s="137"/>
+      <c r="BH10" s="137"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="136"/>
+      <c r="BK10" s="137"/>
+      <c r="BL10" s="137"/>
+      <c r="BM10" s="137"/>
+      <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="209"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="131"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="133"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="131"/>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="131"/>
-      <c r="AQ11" s="131"/>
-      <c r="AR11" s="131"/>
-      <c r="AS11" s="131"/>
-      <c r="AT11" s="131"/>
-      <c r="AU11" s="128"/>
-      <c r="AV11" s="129"/>
-      <c r="AW11" s="129"/>
-      <c r="AX11" s="131"/>
-      <c r="AY11" s="131"/>
-      <c r="AZ11" s="131"/>
-      <c r="BA11" s="131"/>
-      <c r="BB11" s="128"/>
-      <c r="BC11" s="129"/>
-      <c r="BD11" s="131"/>
-      <c r="BE11" s="131"/>
-      <c r="BF11" s="131"/>
-      <c r="BG11" s="131"/>
-      <c r="BH11" s="131"/>
-      <c r="BI11" s="128"/>
-      <c r="BJ11" s="129"/>
-      <c r="BK11" s="131"/>
-      <c r="BL11" s="131"/>
-      <c r="BM11" s="131"/>
-      <c r="BN11" s="132"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="130"/>
+      <c r="AJ11" s="131"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="130"/>
+      <c r="AN11" s="127"/>
+      <c r="AO11" s="128"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="127"/>
+      <c r="AV11" s="128"/>
+      <c r="AW11" s="128"/>
+      <c r="AX11" s="130"/>
+      <c r="AY11" s="130"/>
+      <c r="AZ11" s="130"/>
+      <c r="BA11" s="130"/>
+      <c r="BB11" s="127"/>
+      <c r="BC11" s="128"/>
+      <c r="BD11" s="130"/>
+      <c r="BE11" s="130"/>
+      <c r="BF11" s="130"/>
+      <c r="BG11" s="130"/>
+      <c r="BH11" s="130"/>
+      <c r="BI11" s="127"/>
+      <c r="BJ11" s="128"/>
+      <c r="BK11" s="130"/>
+      <c r="BL11" s="130"/>
+      <c r="BM11" s="130"/>
+      <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="208"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="210" t="s">
+      <c r="C12" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="214" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="217"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="106"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="105"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
       <c r="S12" s="16"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="101"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="62"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -4787,8 +4784,8 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="22"/>
       <c r="AI12" s="9"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="82"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="81"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="16"/>
@@ -4817,27 +4814,27 @@
       <c r="BK12" s="9"/>
       <c r="BL12" s="9"/>
       <c r="BM12" s="9"/>
-      <c r="BN12" s="71"/>
+      <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="66"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
       <c r="S13" s="44"/>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
@@ -4855,8 +4852,8 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="86"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="85"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="44"/>
@@ -4885,10 +4882,10 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="75"/>
+      <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="203">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4898,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="201" t="s">
+      <c r="E14" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4909,7 +4906,7 @@
       <c r="K14" s="62"/>
       <c r="L14" s="16"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="113"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="62"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
@@ -4917,22 +4914,22 @@
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="143"/>
+      <c r="V14" s="142"/>
       <c r="W14" s="41"/>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="101"/>
+      <c r="AC14" s="100"/>
       <c r="AD14" s="62"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="82"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="81"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="16"/>
@@ -4961,15 +4958,15 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-      <c r="BN14" s="71"/>
+      <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="187"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="210"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4999,8 +4996,8 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="82"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="16"/>
@@ -5029,21 +5026,21 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-      <c r="BN15" s="71"/>
+      <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="159">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="190" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="232"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5066,15 +5063,15 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="98"/>
+      <c r="AC16" s="97"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="83"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="82"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -5103,15 +5100,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="72"/>
+      <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="154"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5141,8 +5138,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="84"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="83"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -5171,23 +5168,23 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="73"/>
+      <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="235"/>
+      <c r="E18" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5216,9 +5213,9 @@
       <c r="AF18" s="65"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="85"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="84"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -5247,15 +5244,15 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="6"/>
-      <c r="BN18" s="74"/>
+      <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="187"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="210"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5285,8 +5282,8 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="84"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="83"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -5315,21 +5312,21 @@
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
-      <c r="BN19" s="73"/>
+      <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="197">
+      <c r="A20" s="233">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="188" t="s">
+      <c r="D20" s="164"/>
+      <c r="E20" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="232"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5358,9 +5355,9 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="90"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="89"/>
       <c r="AL20" s="63"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="13"/>
@@ -5389,15 +5386,15 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="72"/>
+      <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="197"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5427,8 +5424,8 @@
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="64"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="87"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="86"/>
       <c r="AL21" s="64"/>
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
@@ -5457,21 +5454,21 @@
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
-      <c r="BN21" s="73"/>
+      <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="197">
+      <c r="A22" s="233">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="188" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="189"/>
+      <c r="F22" s="232"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5500,9 +5497,9 @@
       <c r="AF22" s="42"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="87"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="86"/>
       <c r="AL22" s="64"/>
       <c r="AM22" s="64"/>
       <c r="AN22" s="25"/>
@@ -5531,15 +5528,15 @@
       <c r="BK22" s="64"/>
       <c r="BL22" s="64"/>
       <c r="BM22" s="64"/>
-      <c r="BN22" s="76"/>
+      <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="197"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5547,75 +5544,75 @@
       <c r="K23" s="8"/>
       <c r="L23" s="17"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
       <c r="S23" s="17"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="67"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="23"/>
-      <c r="AP23" s="67"/>
-      <c r="AQ23" s="67"/>
-      <c r="AR23" s="67"/>
-      <c r="AS23" s="67"/>
-      <c r="AT23" s="67"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
+      <c r="BA23" s="66"/>
       <c r="BB23" s="17"/>
       <c r="BC23" s="23"/>
-      <c r="BD23" s="67"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="67"/>
-      <c r="BH23" s="67"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="66"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="66"/>
+      <c r="BH23" s="66"/>
       <c r="BI23" s="17"/>
       <c r="BJ23" s="23"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="67"/>
-      <c r="BM23" s="67"/>
-      <c r="BN23" s="77"/>
+      <c r="BK23" s="66"/>
+      <c r="BL23" s="66"/>
+      <c r="BM23" s="66"/>
+      <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="235"/>
+      <c r="E24" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5645,13 +5642,13 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="65"/>
-      <c r="AJ24" s="144"/>
-      <c r="AK24" s="89"/>
+      <c r="AJ24" s="143"/>
+      <c r="AK24" s="88"/>
       <c r="AL24" s="65"/>
       <c r="AM24" s="65"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="100"/>
+      <c r="AP24" s="99"/>
       <c r="AQ24" s="65"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
@@ -5675,17 +5672,17 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="65"/>
-      <c r="BN24" s="78"/>
+      <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="187"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5715,8 +5712,8 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="90"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="89"/>
       <c r="AL25" s="63"/>
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
@@ -5745,21 +5742,21 @@
       <c r="BK25" s="63"/>
       <c r="BL25" s="63"/>
       <c r="BM25" s="63"/>
-      <c r="BN25" s="79"/>
+      <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="153">
+      <c r="A26" s="159">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="190" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5789,13 +5786,13 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="145"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="144"/>
       <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="98"/>
+      <c r="AP26" s="97"/>
       <c r="AQ26" s="63"/>
       <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
@@ -5819,15 +5816,15 @@
       <c r="BK26" s="63"/>
       <c r="BL26" s="63"/>
       <c r="BM26" s="63"/>
-      <c r="BN26" s="79"/>
+      <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="192"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5857,8 +5854,8 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="90"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="89"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5887,21 +5884,21 @@
       <c r="BK27" s="63"/>
       <c r="BL27" s="63"/>
       <c r="BM27" s="63"/>
-      <c r="BN27" s="79"/>
+      <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="153">
+      <c r="A28" s="159">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="190" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="191"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5931,8 +5928,8 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="90"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="89"/>
       <c r="AL28" s="63"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
@@ -5945,7 +5942,7 @@
       <c r="AU28" s="13"/>
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
-      <c r="AX28" s="98"/>
+      <c r="AX28" s="97"/>
       <c r="AY28" s="30"/>
       <c r="AZ28" s="63"/>
       <c r="BA28" s="63"/>
@@ -5961,15 +5958,15 @@
       <c r="BK28" s="63"/>
       <c r="BL28" s="63"/>
       <c r="BM28" s="63"/>
-      <c r="BN28" s="79"/>
+      <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="161"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="192"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5999,8 +5996,8 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="90"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="89"/>
       <c r="AL29" s="63"/>
       <c r="AM29" s="63"/>
       <c r="AN29" s="13"/>
@@ -6029,21 +6026,21 @@
       <c r="BK29" s="63"/>
       <c r="BL29" s="63"/>
       <c r="BM29" s="63"/>
-      <c r="BN29" s="79"/>
+      <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="153">
+      <c r="A30" s="159">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="193" t="s">
+      <c r="C30" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="194"/>
-      <c r="E30" s="190" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="153"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6073,8 +6070,8 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="90"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="89"/>
       <c r="AL30" s="63"/>
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
@@ -6087,7 +6084,7 @@
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="98"/>
+      <c r="AX30" s="97"/>
       <c r="AY30" s="30"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
@@ -6103,15 +6100,15 @@
       <c r="BK30" s="63"/>
       <c r="BL30" s="63"/>
       <c r="BM30" s="63"/>
-      <c r="BN30" s="79"/>
+      <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="192"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6141,8 +6138,8 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="90"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="89"/>
       <c r="AL31" s="63"/>
       <c r="AM31" s="63"/>
       <c r="AN31" s="13"/>
@@ -6171,21 +6168,21 @@
       <c r="BK31" s="63"/>
       <c r="BL31" s="63"/>
       <c r="BM31" s="63"/>
-      <c r="BN31" s="79"/>
+      <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="153">
+      <c r="A32" s="159">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="191"/>
+      <c r="F32" s="153"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6215,8 +6212,8 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="63"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="90"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="89"/>
       <c r="AL32" s="63"/>
       <c r="AM32" s="63"/>
       <c r="AN32" s="13"/>
@@ -6229,7 +6226,7 @@
       <c r="AU32" s="13"/>
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
-      <c r="AX32" s="98"/>
+      <c r="AX32" s="97"/>
       <c r="AY32" s="30"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
@@ -6245,15 +6242,15 @@
       <c r="BK32" s="63"/>
       <c r="BL32" s="63"/>
       <c r="BM32" s="63"/>
-      <c r="BN32" s="79"/>
+      <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="161"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="192"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6283,8 +6280,8 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="63"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="90"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="89"/>
       <c r="AL33" s="63"/>
       <c r="AM33" s="63"/>
       <c r="AN33" s="13"/>
@@ -6313,21 +6310,21 @@
       <c r="BK33" s="63"/>
       <c r="BL33" s="63"/>
       <c r="BM33" s="63"/>
-      <c r="BN33" s="79"/>
+      <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="153">
+      <c r="A34" s="159">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="164"/>
+      <c r="E34" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="189"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6357,8 +6354,8 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="63"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="90"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="89"/>
       <c r="AL34" s="63"/>
       <c r="AM34" s="63"/>
       <c r="AN34" s="13"/>
@@ -6377,7 +6374,7 @@
       <c r="BA34" s="30"/>
       <c r="BB34" s="13"/>
       <c r="BC34" s="19"/>
-      <c r="BD34" s="98"/>
+      <c r="BD34" s="97"/>
       <c r="BE34" s="30"/>
       <c r="BF34" s="63"/>
       <c r="BG34" s="63"/>
@@ -6387,15 +6384,15 @@
       <c r="BK34" s="63"/>
       <c r="BL34" s="63"/>
       <c r="BM34" s="63"/>
-      <c r="BN34" s="79"/>
+      <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="161"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="187"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="210"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6425,8 +6422,8 @@
       <c r="AG35" s="13"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="63"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="90"/>
+      <c r="AJ35" s="78"/>
+      <c r="AK35" s="89"/>
       <c r="AL35" s="63"/>
       <c r="AM35" s="63"/>
       <c r="AN35" s="13"/>
@@ -6455,23 +6452,23 @@
       <c r="BK35" s="63"/>
       <c r="BL35" s="63"/>
       <c r="BM35" s="63"/>
-      <c r="BN35" s="79"/>
+      <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="153">
+      <c r="A36" s="159">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="252"/>
+      <c r="E36" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6501,8 +6498,8 @@
       <c r="AG36" s="15"/>
       <c r="AH36" s="21"/>
       <c r="AI36" s="65"/>
-      <c r="AJ36" s="78"/>
-      <c r="AK36" s="89"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="88"/>
       <c r="AL36" s="65"/>
       <c r="AM36" s="65"/>
       <c r="AN36" s="15"/>
@@ -6531,15 +6528,15 @@
       <c r="BK36" s="65"/>
       <c r="BL36" s="65"/>
       <c r="BM36" s="65"/>
-      <c r="BN36" s="78"/>
+      <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="154"/>
+      <c r="A37" s="203"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="160"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="256"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6569,8 +6566,8 @@
       <c r="AG37" s="13"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="63"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="90"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="89"/>
       <c r="AL37" s="63"/>
       <c r="AM37" s="63"/>
       <c r="AN37" s="13"/>
@@ -6599,19 +6596,19 @@
       <c r="BK37" s="63"/>
       <c r="BL37" s="63"/>
       <c r="BM37" s="63"/>
-      <c r="BN37" s="79"/>
+      <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="154"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="167"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="175"/>
+      <c r="E38" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="258"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6641,8 +6638,8 @@
       <c r="AG38" s="16"/>
       <c r="AH38" s="22"/>
       <c r="AI38" s="62"/>
-      <c r="AJ38" s="105"/>
-      <c r="AK38" s="106"/>
+      <c r="AJ38" s="104"/>
+      <c r="AK38" s="105"/>
       <c r="AL38" s="62"/>
       <c r="AM38" s="62"/>
       <c r="AN38" s="16"/>
@@ -6671,15 +6668,15 @@
       <c r="BK38" s="41"/>
       <c r="BL38" s="41"/>
       <c r="BM38" s="62"/>
-      <c r="BN38" s="105"/>
+      <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="259"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6687,75 +6684,75 @@
       <c r="K39" s="8"/>
       <c r="L39" s="17"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
       <c r="S39" s="17"/>
       <c r="T39" s="23"/>
       <c r="U39" s="23"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
       <c r="Z39" s="17"/>
       <c r="AA39" s="23"/>
       <c r="AB39" s="23"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="67"/>
-      <c r="AF39" s="67"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
       <c r="AG39" s="17"/>
       <c r="AH39" s="23"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="77"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="23"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="67"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
       <c r="AU39" s="17"/>
       <c r="AV39" s="23"/>
       <c r="AW39" s="23"/>
-      <c r="AX39" s="67"/>
-      <c r="AY39" s="67"/>
-      <c r="AZ39" s="67"/>
-      <c r="BA39" s="67"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="66"/>
       <c r="BB39" s="17"/>
       <c r="BC39" s="23"/>
-      <c r="BD39" s="67"/>
-      <c r="BE39" s="67"/>
-      <c r="BF39" s="67"/>
-      <c r="BG39" s="67"/>
-      <c r="BH39" s="67"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
       <c r="BI39" s="17"/>
       <c r="BJ39" s="23"/>
-      <c r="BK39" s="67"/>
-      <c r="BL39" s="67"/>
-      <c r="BM39" s="67"/>
-      <c r="BN39" s="77"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="66"/>
+      <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="153">
+      <c r="A40" s="159">
         <v>16</v>
       </c>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="172" t="s">
+      <c r="D40" s="235"/>
+      <c r="E40" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="107"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="50"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -6785,8 +6782,8 @@
       <c r="AG40" s="16"/>
       <c r="AH40" s="22"/>
       <c r="AI40" s="62"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="106"/>
+      <c r="AJ40" s="104"/>
+      <c r="AK40" s="105"/>
       <c r="AL40" s="62"/>
       <c r="AM40" s="62"/>
       <c r="AN40" s="16"/>
@@ -6815,15 +6812,15 @@
       <c r="BK40" s="62"/>
       <c r="BL40" s="62"/>
       <c r="BM40" s="62"/>
-      <c r="BN40" s="105"/>
+      <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="154"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="203"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -6853,8 +6850,8 @@
       <c r="AG41" s="13"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="63"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="90"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="89"/>
       <c r="AL41" s="63"/>
       <c r="AM41" s="63"/>
       <c r="AN41" s="13"/>
@@ -6883,19 +6880,19 @@
       <c r="BK41" s="63"/>
       <c r="BL41" s="63"/>
       <c r="BM41" s="63"/>
-      <c r="BN41" s="79"/>
+      <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="154"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="168" t="s">
+      <c r="A42" s="203"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="169"/>
-      <c r="E42" s="172" t="s">
+      <c r="D42" s="164"/>
+      <c r="E42" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="173"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6925,8 +6922,8 @@
       <c r="AG42" s="16"/>
       <c r="AH42" s="22"/>
       <c r="AI42" s="62"/>
-      <c r="AJ42" s="105"/>
-      <c r="AK42" s="106"/>
+      <c r="AJ42" s="104"/>
+      <c r="AK42" s="105"/>
       <c r="AL42" s="62"/>
       <c r="AM42" s="62"/>
       <c r="AN42" s="16"/>
@@ -6955,15 +6952,15 @@
       <c r="BK42" s="41"/>
       <c r="BL42" s="41"/>
       <c r="BM42" s="62"/>
-      <c r="BN42" s="105"/>
+      <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="174"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="247"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="244"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -6979,51 +6976,51 @@
       <c r="S43" s="14"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="67"/>
       <c r="AG43" s="14"/>
       <c r="AH43" s="20"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="79"/>
+      <c r="AK43" s="90"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
       <c r="AN43" s="14"/>
       <c r="AO43" s="20"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
-      <c r="AS43" s="68"/>
-      <c r="AT43" s="68"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="20"/>
       <c r="AW43" s="20"/>
-      <c r="AX43" s="68"/>
-      <c r="AY43" s="68"/>
-      <c r="AZ43" s="68"/>
-      <c r="BA43" s="68"/>
+      <c r="AX43" s="67"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
       <c r="BB43" s="14"/>
       <c r="BC43" s="20"/>
-      <c r="BD43" s="68"/>
-      <c r="BE43" s="68"/>
-      <c r="BF43" s="68"/>
-      <c r="BG43" s="68"/>
-      <c r="BH43" s="68"/>
+      <c r="BD43" s="67"/>
+      <c r="BE43" s="67"/>
+      <c r="BF43" s="67"/>
+      <c r="BG43" s="67"/>
+      <c r="BH43" s="67"/>
       <c r="BI43" s="14"/>
       <c r="BJ43" s="20"/>
-      <c r="BK43" s="68"/>
-      <c r="BL43" s="68"/>
-      <c r="BM43" s="68"/>
-      <c r="BN43" s="80"/>
+      <c r="BK43" s="67"/>
+      <c r="BL43" s="67"/>
+      <c r="BM43" s="67"/>
+      <c r="BN43" s="79"/>
     </row>
     <row r="44" spans="1:66">
       <c r="Z44" s="5"/>
@@ -7042,36 +7039,61 @@
       </c>
     </row>
     <row r="47" spans="1:66">
-      <c r="A47" s="104"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
@@ -7088,54 +7110,29 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7179,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="229"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="182"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7301,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7381,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="268" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="270"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7417,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="272" t="s">
+      <c r="AC4" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="261" t="s">
+      <c r="AD4" s="283" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="293"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7453,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="262"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="284"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="264" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="266"/>
+      <c r="F6" s="288"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7491,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="262"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="284"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="267"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="289"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7523,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="262"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="284"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="153">
+      <c r="A8" s="159">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7537,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="276" t="s">
+      <c r="E8" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="279"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7563,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="262"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="284"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="275"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="279"/>
+      <c r="F9" s="276"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7595,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="262"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="284"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="203">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="224"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="282"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7635,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="273"/>
-      <c r="AD10" s="262"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="284"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="283"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="275"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7667,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="273"/>
-      <c r="AD11" s="262"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="284"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="153">
+      <c r="A12" s="159">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="284" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="285"/>
+      <c r="F12" s="274"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7705,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="273"/>
-      <c r="AD12" s="262"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="284"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="282"/>
+      <c r="F13" s="281"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7737,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="262"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="284"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="197">
+      <c r="A14" s="233">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="286" t="s">
+      <c r="D14" s="235"/>
+      <c r="E14" s="278" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7777,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="262"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="284"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="197"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="283"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="275"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7809,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="262"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="284"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="197">
+      <c r="A16" s="233">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="287" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="285"/>
+      <c r="F16" s="274"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7847,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="262"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="284"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="197"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="283"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="275"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7879,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="262"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="284"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="287" t="s">
+      <c r="D18" s="164"/>
+      <c r="E18" s="272" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="285"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7917,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="273"/>
-      <c r="AD18" s="262"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="284"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="279"/>
+      <c r="F19" s="276"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7949,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="262"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="284"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="153">
+      <c r="A20" s="159">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="286" t="s">
+      <c r="D20" s="235"/>
+      <c r="E20" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="278"/>
+      <c r="F20" s="279"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7989,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="273"/>
-      <c r="AD20" s="262"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="284"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="283"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="275"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8023,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="262"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="284"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="153">
+      <c r="A22" s="159">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="287" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="285"/>
+      <c r="F22" s="274"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8061,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="273"/>
-      <c r="AD22" s="262"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="284"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="283"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="275"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8093,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="273"/>
-      <c r="AD23" s="262"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="284"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="287" t="s">
+      <c r="D24" s="164"/>
+      <c r="E24" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="285"/>
+      <c r="F24" s="274"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8131,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="273"/>
-      <c r="AD24" s="262"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="284"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="276"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8163,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="262"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="284"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="248">
+      <c r="A26" s="161">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="288" t="s">
+      <c r="D26" s="252"/>
+      <c r="E26" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="290"/>
+      <c r="F26" s="263"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8203,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="273"/>
-      <c r="AD26" s="262"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="284"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="249"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="291"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8235,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="262"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="284"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="248">
+      <c r="A28" s="161">
         <v>14</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="293" t="s">
+      <c r="D28" s="235"/>
+      <c r="E28" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="297"/>
+      <c r="F28" s="270"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8275,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="273"/>
-      <c r="AD28" s="262"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="284"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="292"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="298"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="267"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="271"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8307,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="274"/>
-      <c r="AD29" s="263"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="285"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8328,45 +8325,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8383,12 +8347,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3706D-33EE-48E4-AA8B-A25B73A2113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13A713-E294-4E41-A238-694FC8330DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,12 +2485,126 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,11 +2623,158 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2521,18 +2782,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,12 +2803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,247 +2815,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,87 +2927,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3637,7 +3637,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3654,94 +3654,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="227">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="227">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="228"/>
+      <c r="BD1" s="228"/>
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="228"/>
+      <c r="BI1" s="228"/>
+      <c r="BJ1" s="228"/>
+      <c r="BK1" s="228"/>
+      <c r="BL1" s="228"/>
+      <c r="BM1" s="228"/>
+      <c r="BN1" s="229"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="176" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="259" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4249,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="179"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4317,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="252" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4393,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,7 +4461,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="203">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4471,10 +4471,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="201"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4537,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="203"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4558,7 +4558,7 @@
       <c r="S9" s="115"/>
       <c r="T9" s="116"/>
       <c r="U9" s="116"/>
-      <c r="V9" s="117"/>
+      <c r="V9" s="146"/>
       <c r="W9" s="114"/>
       <c r="X9" s="117"/>
       <c r="Y9" s="117"/>
@@ -4605,16 +4605,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="211"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="219" t="s">
+      <c r="D10" s="220"/>
+      <c r="E10" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="217"/>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4677,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="212"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="218"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4698,7 +4698,7 @@
       <c r="S11" s="127"/>
       <c r="T11" s="128"/>
       <c r="U11" s="128"/>
-      <c r="V11" s="130"/>
+      <c r="V11" s="147"/>
       <c r="W11" s="126"/>
       <c r="X11" s="130"/>
       <c r="Y11" s="130"/>
@@ -4745,16 +4745,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="211"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="211"/>
+      <c r="E12" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4817,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="212"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="222"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4838,7 +4838,7 @@
       <c r="S13" s="44"/>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
-      <c r="V13" s="43"/>
+      <c r="V13" s="150"/>
       <c r="W13" s="43"/>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
@@ -4885,7 +4885,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="203">
+      <c r="A14" s="154">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4895,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4961,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="160"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="210"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4983,7 +4983,7 @@
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="62"/>
-      <c r="W15" s="9"/>
+      <c r="W15" s="31"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="16"/>
@@ -5029,18 +5029,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="153">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="151" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="232"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5103,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="203"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5171,20 +5171,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="234" t="s">
+      <c r="C18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="201"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5247,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="210"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5315,18 +5315,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="233">
+      <c r="A20" s="197">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="164"/>
-      <c r="E20" s="237" t="s">
+      <c r="D20" s="169"/>
+      <c r="E20" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="232"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5389,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="233"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="210"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="187"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5457,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="233">
+      <c r="A22" s="197">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="237" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="232"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5531,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="233"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="239"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5599,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="234" t="s">
+      <c r="C24" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="235"/>
-      <c r="E24" s="236" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="201"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5675,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="210"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5745,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="159">
+      <c r="A26" s="153">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="151" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="191"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="192"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5887,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="159">
+      <c r="A28" s="153">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="151" t="s">
+      <c r="D28" s="194"/>
+      <c r="E28" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5961,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="160"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="154"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="192"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6029,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="159">
+      <c r="A30" s="153">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="151" t="s">
+      <c r="D30" s="194"/>
+      <c r="E30" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="153"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6103,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="154"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6171,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="159">
+      <c r="A32" s="153">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="151" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="153"/>
+      <c r="F32" s="191"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6245,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="154"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="192"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6313,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="159">
+      <c r="A34" s="153">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="240" t="s">
+      <c r="C34" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="237" t="s">
+      <c r="D34" s="169"/>
+      <c r="E34" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="232"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6387,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="160"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="210"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6455,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="159">
+      <c r="A36" s="153">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="251" t="s">
+      <c r="C36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="249" t="s">
+      <c r="D36" s="156"/>
+      <c r="E36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="255"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6531,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="203"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="256"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="160"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6599,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="203"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="260" t="s">
+      <c r="C38" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="257" t="s">
+      <c r="D38" s="167"/>
+      <c r="E38" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="258"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6671,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="259"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6739,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="159">
+      <c r="A40" s="153">
         <v>16</v>
       </c>
-      <c r="B40" s="245" t="s">
+      <c r="B40" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="241" t="s">
+      <c r="D40" s="180"/>
+      <c r="E40" s="172" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6815,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="203"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="248"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6883,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="203"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="240" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="241" t="s">
+      <c r="D42" s="169"/>
+      <c r="E42" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="173"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6955,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="244"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="174"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7046,22 +7046,61 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -7078,61 +7117,22 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7176,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="182"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="229"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="290" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="292"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="294" t="s">
+      <c r="AC4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="283" t="s">
+      <c r="AD4" s="261" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="271"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="284"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="262"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="286" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="288"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="284"/>
+      <c r="AC6" s="273"/>
+      <c r="AD6" s="262"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="289"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="284"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="262"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="153">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7534,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="279"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="284"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="262"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="297"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="275"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="276"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="284"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="262"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="203">
+      <c r="A10" s="154">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="224"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="281"/>
+      <c r="F10" s="282"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="284"/>
+      <c r="AC10" s="273"/>
+      <c r="AD10" s="262"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="160"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="275"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="283"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="284"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="262"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="153">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="282" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="274"/>
+      <c r="F12" s="285"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="284"/>
+      <c r="AC12" s="273"/>
+      <c r="AD12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="203"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="281"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="284"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="262"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="233">
+      <c r="A14" s="197">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="278" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="284"/>
+      <c r="AC14" s="273"/>
+      <c r="AD14" s="262"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="233"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="275"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="283"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="284"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="262"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="233">
+      <c r="A16" s="197">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="272" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="287" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="274"/>
+      <c r="F16" s="285"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="284"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="262"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="233"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="275"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="283"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="284"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="262"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="272" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="274"/>
+      <c r="F18" s="285"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="284"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="262"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="276"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="284"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="262"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="153">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="235"/>
-      <c r="E20" s="278" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="279"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="284"/>
+      <c r="AC20" s="273"/>
+      <c r="AD20" s="262"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="275"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="283"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="284"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="153">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="240" t="s">
+      <c r="C22" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="272" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="274"/>
+      <c r="F22" s="285"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="284"/>
+      <c r="AC22" s="273"/>
+      <c r="AD22" s="262"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="275"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="283"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="284"/>
+      <c r="AC23" s="273"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="240" t="s">
+      <c r="C24" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="272" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="274"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="284"/>
+      <c r="AC24" s="273"/>
+      <c r="AD24" s="262"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="276"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="284"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="262"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="248">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="252"/>
-      <c r="E26" s="261" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="263"/>
+      <c r="F26" s="290"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="284"/>
+      <c r="AC26" s="273"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="264"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="291"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="284"/>
+      <c r="AC27" s="273"/>
+      <c r="AD27" s="262"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="248">
         <v>14</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="293" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="234" t="s">
+      <c r="C28" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="266" t="s">
+      <c r="D28" s="180"/>
+      <c r="E28" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="270"/>
+      <c r="F28" s="297"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="284"/>
+      <c r="AC28" s="273"/>
+      <c r="AD28" s="262"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="267"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="267"/>
-      <c r="F29" s="271"/>
+      <c r="A29" s="292"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="285"/>
+      <c r="AC29" s="274"/>
+      <c r="AD29" s="263"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8325,12 +8325,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8347,45 +8380,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13A713-E294-4E41-A238-694FC8330DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631EA30B-A8AE-4D3B-AEC6-A60937722788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,18 +2485,306 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2515,15 +2803,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,287 +2815,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2861,72 +2927,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3637,7 +3637,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3654,94 +3654,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="228"/>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="228"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="227">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="228"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
-      <c r="BB1" s="228"/>
-      <c r="BC1" s="228"/>
-      <c r="BD1" s="228"/>
-      <c r="BE1" s="228"/>
-      <c r="BF1" s="228"/>
-      <c r="BG1" s="228"/>
-      <c r="BH1" s="228"/>
-      <c r="BI1" s="228"/>
-      <c r="BJ1" s="228"/>
-      <c r="BK1" s="228"/>
-      <c r="BL1" s="228"/>
-      <c r="BM1" s="228"/>
-      <c r="BN1" s="229"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="259" t="s">
+      <c r="F4" s="178" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4249,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4317,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="250" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="169" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4393,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="253"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,7 +4461,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="203">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4471,10 +4471,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="201"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4537,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="203"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="202"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4605,16 +4605,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="208"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="223"/>
+      <c r="E10" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="217"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4677,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="209"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="218"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4745,16 +4745,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="208"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="210" t="s">
+      <c r="C12" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="214" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="217"/>
+      <c r="F12" s="220"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4817,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="219"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="222"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4839,7 +4839,7 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
       <c r="V13" s="150"/>
-      <c r="W13" s="43"/>
+      <c r="W13" s="150"/>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
       <c r="Z13" s="44"/>
@@ -4885,7 +4885,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="203">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4895,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="201" t="s">
+      <c r="E14" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4961,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="187"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="210"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4984,8 +4984,8 @@
       <c r="U15" s="22"/>
       <c r="V15" s="62"/>
       <c r="W15" s="31"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
@@ -5029,18 +5029,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="159">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="190" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="232"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5103,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="154"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5127,7 +5127,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="Y17" s="32"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
@@ -5171,20 +5171,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="235"/>
+      <c r="E18" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5247,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="187"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="210"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5315,18 +5315,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="197">
+      <c r="A20" s="233">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="188" t="s">
+      <c r="D20" s="164"/>
+      <c r="E20" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="232"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5389,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="197"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5457,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="197">
+      <c r="A22" s="233">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="188" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="189"/>
+      <c r="F22" s="232"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5531,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="197"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5599,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="235"/>
+      <c r="E24" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5675,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="187"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5745,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="153">
+      <c r="A26" s="159">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="190" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="192"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5887,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="153">
+      <c r="A28" s="159">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="190" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="191"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5961,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="161"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="192"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6029,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="153">
+      <c r="A30" s="159">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="193" t="s">
+      <c r="C30" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="194"/>
-      <c r="E30" s="190" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="153"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6103,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="192"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6171,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="153">
+      <c r="A32" s="159">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="191"/>
+      <c r="F32" s="153"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6245,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="161"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="192"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6313,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="153">
+      <c r="A34" s="159">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="164"/>
+      <c r="E34" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="189"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6387,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="161"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="187"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="210"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6455,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="153">
+      <c r="A36" s="159">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="252"/>
+      <c r="E36" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6531,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="154"/>
+      <c r="A37" s="203"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="160"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="256"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6599,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="154"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="167"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="175"/>
+      <c r="E38" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="258"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6671,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="259"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6739,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="153">
+      <c r="A40" s="159">
         <v>16</v>
       </c>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="172" t="s">
+      <c r="D40" s="235"/>
+      <c r="E40" s="241" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6815,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="154"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="178"/>
+      <c r="A41" s="203"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="248"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6883,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="154"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="168" t="s">
+      <c r="A42" s="203"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="169"/>
-      <c r="E42" s="172" t="s">
+      <c r="D42" s="164"/>
+      <c r="E42" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="173"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6955,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="174"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="247"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="244"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7046,29 +7046,54 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
@@ -7085,54 +7110,29 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7176,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="229"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="182"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="268" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="270"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="272" t="s">
+      <c r="AC4" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="261" t="s">
+      <c r="AD4" s="283" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="293"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="262"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="284"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="264" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="266"/>
+      <c r="F6" s="288"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="262"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="284"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="267"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="289"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="262"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="284"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="153">
+      <c r="A8" s="159">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7534,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="276" t="s">
+      <c r="E8" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="279"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="262"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="284"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="275"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="279"/>
+      <c r="F9" s="276"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="262"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="284"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="203">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="224"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="282"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="273"/>
-      <c r="AD10" s="262"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="284"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="283"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="275"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="273"/>
-      <c r="AD11" s="262"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="284"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="153">
+      <c r="A12" s="159">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="284" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="285"/>
+      <c r="F12" s="274"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="273"/>
-      <c r="AD12" s="262"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="284"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="282"/>
+      <c r="F13" s="281"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="262"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="284"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="197">
+      <c r="A14" s="233">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="286" t="s">
+      <c r="D14" s="235"/>
+      <c r="E14" s="278" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="262"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="284"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="197"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="283"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="275"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="262"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="284"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="197">
+      <c r="A16" s="233">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="287" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="285"/>
+      <c r="F16" s="274"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="262"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="284"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="197"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="283"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="275"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="262"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="284"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="287" t="s">
+      <c r="D18" s="164"/>
+      <c r="E18" s="272" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="285"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="273"/>
-      <c r="AD18" s="262"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="284"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="279"/>
+      <c r="F19" s="276"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="262"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="284"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="153">
+      <c r="A20" s="159">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="286" t="s">
+      <c r="D20" s="235"/>
+      <c r="E20" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="278"/>
+      <c r="F20" s="279"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="273"/>
-      <c r="AD20" s="262"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="284"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="283"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="275"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="262"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="284"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="153">
+      <c r="A22" s="159">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="287" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="285"/>
+      <c r="F22" s="274"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="273"/>
-      <c r="AD22" s="262"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="284"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="283"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="275"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="273"/>
-      <c r="AD23" s="262"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="284"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="287" t="s">
+      <c r="D24" s="164"/>
+      <c r="E24" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="285"/>
+      <c r="F24" s="274"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="273"/>
-      <c r="AD24" s="262"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="284"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="276"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="262"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="284"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="248">
+      <c r="A26" s="161">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="288" t="s">
+      <c r="D26" s="252"/>
+      <c r="E26" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="290"/>
+      <c r="F26" s="263"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="273"/>
-      <c r="AD26" s="262"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="284"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="249"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="291"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="262"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="284"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="248">
+      <c r="A28" s="161">
         <v>14</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="293" t="s">
+      <c r="D28" s="235"/>
+      <c r="E28" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="297"/>
+      <c r="F28" s="270"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="273"/>
-      <c r="AD28" s="262"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="284"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="292"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="298"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="267"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="271"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="274"/>
-      <c r="AD29" s="263"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="285"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8325,45 +8325,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8380,12 +8347,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631EA30B-A8AE-4D3B-AEC6-A60937722788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BEA49F-7314-465A-806C-491465925466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,12 +2485,126 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,11 +2623,158 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2521,18 +2782,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,12 +2803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,247 +2815,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,87 +2927,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3637,7 +3637,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3654,94 +3654,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="227">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="227">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="228"/>
+      <c r="BD1" s="228"/>
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="228"/>
+      <c r="BI1" s="228"/>
+      <c r="BJ1" s="228"/>
+      <c r="BK1" s="228"/>
+      <c r="BL1" s="228"/>
+      <c r="BM1" s="228"/>
+      <c r="BN1" s="229"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="176" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="259" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4249,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="179"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4317,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="252" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4393,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,7 +4461,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="203">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4471,10 +4471,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="201"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4537,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="203"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4565,7 +4565,7 @@
       <c r="Z9" s="115"/>
       <c r="AA9" s="116"/>
       <c r="AB9" s="116"/>
-      <c r="AC9" s="117"/>
+      <c r="AC9" s="146"/>
       <c r="AD9" s="117"/>
       <c r="AE9" s="117"/>
       <c r="AF9" s="117"/>
@@ -4605,16 +4605,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="211"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="219" t="s">
+      <c r="D10" s="220"/>
+      <c r="E10" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="217"/>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4677,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="212"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="218"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4745,16 +4745,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="211"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="211"/>
+      <c r="E12" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4817,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="212"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="222"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4845,7 +4845,7 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
-      <c r="AC13" s="43"/>
+      <c r="AC13" s="150"/>
       <c r="AD13" s="43"/>
       <c r="AE13" s="43"/>
       <c r="AF13" s="43"/>
@@ -4885,7 +4885,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="203">
+      <c r="A14" s="154">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4895,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4961,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="160"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="210"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5029,18 +5029,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="153">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="151" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="232"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5103,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="203"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5171,20 +5171,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="234" t="s">
+      <c r="C18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="201"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5247,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="210"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5315,18 +5315,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="233">
+      <c r="A20" s="197">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="164"/>
-      <c r="E20" s="237" t="s">
+      <c r="D20" s="169"/>
+      <c r="E20" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="232"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5389,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="233"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="210"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="187"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5457,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="233">
+      <c r="A22" s="197">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="237" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="232"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5531,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="233"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="239"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5599,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="234" t="s">
+      <c r="C24" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="235"/>
-      <c r="E24" s="236" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="201"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5675,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="210"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5745,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="159">
+      <c r="A26" s="153">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="151" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="191"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="192"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5887,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="159">
+      <c r="A28" s="153">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="151" t="s">
+      <c r="D28" s="194"/>
+      <c r="E28" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5961,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="160"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="154"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="192"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6029,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="159">
+      <c r="A30" s="153">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="151" t="s">
+      <c r="D30" s="194"/>
+      <c r="E30" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="153"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6103,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="154"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6171,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="159">
+      <c r="A32" s="153">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="151" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="153"/>
+      <c r="F32" s="191"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6245,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="154"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="192"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6313,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="159">
+      <c r="A34" s="153">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="240" t="s">
+      <c r="C34" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="237" t="s">
+      <c r="D34" s="169"/>
+      <c r="E34" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="232"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6387,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="160"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="210"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6455,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="159">
+      <c r="A36" s="153">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="251" t="s">
+      <c r="C36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="249" t="s">
+      <c r="D36" s="156"/>
+      <c r="E36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="255"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6531,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="203"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="256"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="160"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6599,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="203"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="260" t="s">
+      <c r="C38" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="257" t="s">
+      <c r="D38" s="167"/>
+      <c r="E38" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="258"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6671,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="259"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6739,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="159">
+      <c r="A40" s="153">
         <v>16</v>
       </c>
-      <c r="B40" s="245" t="s">
+      <c r="B40" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="241" t="s">
+      <c r="D40" s="180"/>
+      <c r="E40" s="172" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6815,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="203"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="248"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6883,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="203"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="240" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="241" t="s">
+      <c r="D42" s="169"/>
+      <c r="E42" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="173"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6955,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="244"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="174"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7046,22 +7046,61 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -7078,61 +7117,22 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7176,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="182"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="229"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="290" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="292"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="294" t="s">
+      <c r="AC4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="283" t="s">
+      <c r="AD4" s="261" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="271"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="284"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="262"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="286" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="288"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="284"/>
+      <c r="AC6" s="273"/>
+      <c r="AD6" s="262"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="289"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="284"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="262"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="153">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7534,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="279"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="284"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="262"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="297"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="275"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="276"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="284"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="262"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="203">
+      <c r="A10" s="154">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="224"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="281"/>
+      <c r="F10" s="282"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="284"/>
+      <c r="AC10" s="273"/>
+      <c r="AD10" s="262"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="160"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="275"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="283"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="284"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="262"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="153">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="282" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="274"/>
+      <c r="F12" s="285"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="284"/>
+      <c r="AC12" s="273"/>
+      <c r="AD12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="203"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="281"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="284"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="262"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="233">
+      <c r="A14" s="197">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="278" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="284"/>
+      <c r="AC14" s="273"/>
+      <c r="AD14" s="262"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="233"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="275"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="283"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="284"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="262"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="233">
+      <c r="A16" s="197">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="272" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="287" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="274"/>
+      <c r="F16" s="285"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="284"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="262"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="233"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="275"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="283"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="284"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="262"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="272" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="274"/>
+      <c r="F18" s="285"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="284"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="262"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="276"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="284"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="262"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="153">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="235"/>
-      <c r="E20" s="278" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="279"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="284"/>
+      <c r="AC20" s="273"/>
+      <c r="AD20" s="262"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="275"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="283"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="284"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="153">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="240" t="s">
+      <c r="C22" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="272" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="274"/>
+      <c r="F22" s="285"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="284"/>
+      <c r="AC22" s="273"/>
+      <c r="AD22" s="262"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="275"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="283"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="284"/>
+      <c r="AC23" s="273"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="240" t="s">
+      <c r="C24" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="272" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="274"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="284"/>
+      <c r="AC24" s="273"/>
+      <c r="AD24" s="262"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="276"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="284"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="262"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="248">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="252"/>
-      <c r="E26" s="261" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="263"/>
+      <c r="F26" s="290"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="284"/>
+      <c r="AC26" s="273"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="264"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="291"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="284"/>
+      <c r="AC27" s="273"/>
+      <c r="AD27" s="262"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="248">
         <v>14</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="293" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="234" t="s">
+      <c r="C28" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="266" t="s">
+      <c r="D28" s="180"/>
+      <c r="E28" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="270"/>
+      <c r="F28" s="297"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="284"/>
+      <c r="AC28" s="273"/>
+      <c r="AD28" s="262"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="267"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="267"/>
-      <c r="F29" s="271"/>
+      <c r="A29" s="292"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="285"/>
+      <c r="AC29" s="274"/>
+      <c r="AD29" s="263"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8325,12 +8325,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8347,45 +8380,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BEA49F-7314-465A-806C-491465925466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144F149-69F2-4C6D-93BC-E5A713C610BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,18 +2485,306 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2515,15 +2803,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,287 +2815,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2861,72 +2927,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3637,7 +3637,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3654,94 +3654,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227">
+      <c r="G1" s="180">
         <v>45536</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="228"/>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="228"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="227">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="180">
         <v>45566</v>
       </c>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="228"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
-      <c r="BB1" s="228"/>
-      <c r="BC1" s="228"/>
-      <c r="BD1" s="228"/>
-      <c r="BE1" s="228"/>
-      <c r="BF1" s="228"/>
-      <c r="BG1" s="228"/>
-      <c r="BH1" s="228"/>
-      <c r="BI1" s="228"/>
-      <c r="BJ1" s="228"/>
-      <c r="BK1" s="228"/>
-      <c r="BL1" s="228"/>
-      <c r="BM1" s="228"/>
-      <c r="BN1" s="229"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="181"/>
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="181"/>
+      <c r="AS1" s="181"/>
+      <c r="AT1" s="181"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="181"/>
+      <c r="BA1" s="181"/>
+      <c r="BB1" s="181"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
+      <c r="BH1" s="181"/>
+      <c r="BI1" s="181"/>
+      <c r="BJ1" s="181"/>
+      <c r="BK1" s="181"/>
+      <c r="BL1" s="181"/>
+      <c r="BM1" s="181"/>
+      <c r="BN1" s="182"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="259" t="s">
+      <c r="F4" s="178" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4249,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4317,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="250" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="169" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4393,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="253"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,7 +4461,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="203">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4471,10 +4471,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="201"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4537,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="203"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="202"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4605,16 +4605,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="208"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="223"/>
+      <c r="E10" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="217"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4677,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="209"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="218"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4745,16 +4745,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="208"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="210" t="s">
+      <c r="C12" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="214" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="217"/>
+      <c r="F12" s="220"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4817,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="219"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="222"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4885,7 +4885,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="203">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4895,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="201" t="s">
+      <c r="E14" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4961,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="187"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="210"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4990,9 +4990,9 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
@@ -5029,18 +5029,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="159">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="190" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="232"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5103,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="154"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5132,9 +5132,9 @@
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
       <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
@@ -5171,20 +5171,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="235"/>
+      <c r="E18" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5247,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="187"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="210"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5315,18 +5315,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="197">
+      <c r="A20" s="233">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="188" t="s">
+      <c r="D20" s="164"/>
+      <c r="E20" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="232"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5389,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="197"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5457,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="197">
+      <c r="A22" s="233">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="188" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="189"/>
+      <c r="F22" s="232"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5531,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="197"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5599,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="235"/>
+      <c r="E24" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5675,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="187"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5745,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="153">
+      <c r="A26" s="159">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="190" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="192"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5887,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="153">
+      <c r="A28" s="159">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="190" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="191"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5961,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="161"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="192"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6029,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="153">
+      <c r="A30" s="159">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="193" t="s">
+      <c r="C30" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="194"/>
-      <c r="E30" s="190" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="153"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6103,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="192"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6171,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="153">
+      <c r="A32" s="159">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="191"/>
+      <c r="F32" s="153"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6245,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="161"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="192"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6313,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="153">
+      <c r="A34" s="159">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="164"/>
+      <c r="E34" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="189"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6387,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="161"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="187"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="210"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6455,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="153">
+      <c r="A36" s="159">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="252"/>
+      <c r="E36" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6531,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="154"/>
+      <c r="A37" s="203"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="160"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="256"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6599,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="154"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="167"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="175"/>
+      <c r="E38" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="258"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6671,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="259"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6739,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="153">
+      <c r="A40" s="159">
         <v>16</v>
       </c>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="172" t="s">
+      <c r="D40" s="235"/>
+      <c r="E40" s="241" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6815,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="154"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="178"/>
+      <c r="A41" s="203"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="248"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6883,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="154"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="168" t="s">
+      <c r="A42" s="203"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="169"/>
-      <c r="E42" s="172" t="s">
+      <c r="D42" s="164"/>
+      <c r="E42" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="173"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6955,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="174"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="247"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="244"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7046,29 +7046,54 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
@@ -7085,54 +7110,29 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7176,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="190"/>
+      <c r="E1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="229"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="182"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="268" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="270"/>
+      <c r="F4" s="292"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="272" t="s">
+      <c r="AC4" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="261" t="s">
+      <c r="AD4" s="283" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="293"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="262"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="284"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="264" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="266"/>
+      <c r="F6" s="288"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="262"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="284"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="267"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="289"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="262"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="284"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="153">
+      <c r="A8" s="159">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7534,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="276" t="s">
+      <c r="E8" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="279"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="262"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="284"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="275"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="279"/>
+      <c r="F9" s="276"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="262"/>
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="284"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="203">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="224"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="282"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="273"/>
-      <c r="AD10" s="262"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="284"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="283"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="275"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="273"/>
-      <c r="AD11" s="262"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="284"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="153">
+      <c r="A12" s="159">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="284" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="285"/>
+      <c r="F12" s="274"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="273"/>
-      <c r="AD12" s="262"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="284"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="282"/>
+      <c r="F13" s="281"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="262"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="284"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="197">
+      <c r="A14" s="233">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="286" t="s">
+      <c r="D14" s="235"/>
+      <c r="E14" s="278" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="262"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="284"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="197"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="283"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="275"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="262"/>
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="284"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="197">
+      <c r="A16" s="233">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="287" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="285"/>
+      <c r="F16" s="274"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="262"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="284"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="197"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="283"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="275"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="262"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="284"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="233">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="287" t="s">
+      <c r="D18" s="164"/>
+      <c r="E18" s="272" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="285"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="273"/>
-      <c r="AD18" s="262"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="284"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="279"/>
+      <c r="F19" s="276"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="262"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="284"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="153">
+      <c r="A20" s="159">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="286" t="s">
+      <c r="D20" s="235"/>
+      <c r="E20" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="278"/>
+      <c r="F20" s="279"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="273"/>
-      <c r="AD20" s="262"/>
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="284"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="283"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="275"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="262"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="284"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="153">
+      <c r="A22" s="159">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="287" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="285"/>
+      <c r="F22" s="274"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="273"/>
-      <c r="AD22" s="262"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="284"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="283"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="275"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="273"/>
-      <c r="AD23" s="262"/>
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="284"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="159">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="287" t="s">
+      <c r="D24" s="164"/>
+      <c r="E24" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="285"/>
+      <c r="F24" s="274"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="273"/>
-      <c r="AD24" s="262"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="284"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="276"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="262"/>
+      <c r="AC25" s="295"/>
+      <c r="AD25" s="284"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="248">
+      <c r="A26" s="161">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="288" t="s">
+      <c r="D26" s="252"/>
+      <c r="E26" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="290"/>
+      <c r="F26" s="263"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="273"/>
-      <c r="AD26" s="262"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="284"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="249"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="291"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="262"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="284"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="248">
+      <c r="A28" s="161">
         <v>14</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="293" t="s">
+      <c r="D28" s="235"/>
+      <c r="E28" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="297"/>
+      <c r="F28" s="270"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="273"/>
-      <c r="AD28" s="262"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="284"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="292"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="298"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="267"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="271"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="274"/>
-      <c r="AD29" s="263"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="285"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8325,45 +8325,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8380,12 +8347,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144F149-69F2-4C6D-93BC-E5A713C610BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04DB3D-0582-43C5-B1B0-A53D62F409FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,12 +2485,126 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,11 +2623,158 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2521,18 +2782,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,12 +2803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,247 +2815,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,87 +2927,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3654,94 +3654,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180">
+      <c r="G1" s="227">
         <v>45536</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="180">
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="227">
         <v>45566</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="181"/>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="181"/>
-      <c r="AS1" s="181"/>
-      <c r="AT1" s="181"/>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="181"/>
-      <c r="BA1" s="181"/>
-      <c r="BB1" s="181"/>
-      <c r="BC1" s="181"/>
-      <c r="BD1" s="181"/>
-      <c r="BE1" s="181"/>
-      <c r="BF1" s="181"/>
-      <c r="BG1" s="181"/>
-      <c r="BH1" s="181"/>
-      <c r="BI1" s="181"/>
-      <c r="BJ1" s="181"/>
-      <c r="BK1" s="181"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="182"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="228"/>
+      <c r="BD1" s="228"/>
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="228"/>
+      <c r="BI1" s="228"/>
+      <c r="BJ1" s="228"/>
+      <c r="BK1" s="228"/>
+      <c r="BL1" s="228"/>
+      <c r="BM1" s="228"/>
+      <c r="BN1" s="229"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3983,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="176" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="259" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4249,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="179"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4317,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="252" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4393,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,7 +4461,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="203">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4471,10 +4471,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="201"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4537,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="203"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4605,16 +4605,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="211"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="219" t="s">
+      <c r="D10" s="220"/>
+      <c r="E10" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="217"/>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4677,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="212"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="218"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4745,16 +4745,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="211"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="211"/>
+      <c r="E12" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="220"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4817,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="212"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="222"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4885,7 +4885,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="203">
+      <c r="A14" s="154">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4895,10 +4895,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="205"/>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4961,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="160"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="36"/>
       <c r="C15" s="206"/>
       <c r="D15" s="207"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="210"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5029,18 +5029,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="159">
+      <c r="A16" s="153">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="151" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="232"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5103,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="203"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5171,20 +5171,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="234" t="s">
+      <c r="C18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="201"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5247,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="210"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5315,18 +5315,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="233">
+      <c r="A20" s="197">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="164"/>
-      <c r="E20" s="237" t="s">
+      <c r="D20" s="169"/>
+      <c r="E20" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="232"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5389,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="233"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="210"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="187"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5457,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="233">
+      <c r="A22" s="197">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="237" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="232"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5531,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="233"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="239"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5599,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="234" t="s">
+      <c r="C24" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="235"/>
-      <c r="E24" s="236" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="201"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5675,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="210"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5745,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="159">
+      <c r="A26" s="153">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="151" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="191"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="192"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5887,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="159">
+      <c r="A28" s="153">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="151" t="s">
+      <c r="D28" s="194"/>
+      <c r="E28" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="191"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5961,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="160"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="154"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="192"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6029,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="159">
+      <c r="A30" s="153">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="151" t="s">
+      <c r="D30" s="194"/>
+      <c r="E30" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="153"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6103,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="154"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6171,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="159">
+      <c r="A32" s="153">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="151" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="153"/>
+      <c r="F32" s="191"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6245,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="154"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="192"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6313,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="159">
+      <c r="A34" s="153">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="240" t="s">
+      <c r="C34" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="237" t="s">
+      <c r="D34" s="169"/>
+      <c r="E34" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="232"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6387,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="160"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="210"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6455,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="159">
+      <c r="A36" s="153">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="251" t="s">
+      <c r="C36" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="249" t="s">
+      <c r="D36" s="156"/>
+      <c r="E36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="255"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6531,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="203"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="256"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="160"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6599,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="203"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="260" t="s">
+      <c r="C38" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="257" t="s">
+      <c r="D38" s="167"/>
+      <c r="E38" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="258"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6671,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="259"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6739,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="159">
+      <c r="A40" s="153">
         <v>16</v>
       </c>
-      <c r="B40" s="245" t="s">
+      <c r="B40" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="241" t="s">
+      <c r="D40" s="180"/>
+      <c r="E40" s="172" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6815,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="203"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="248"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6883,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="203"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="240" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="241" t="s">
+      <c r="D42" s="169"/>
+      <c r="E42" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="173"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6955,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="160"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="244"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="174"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7046,22 +7046,61 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -7078,61 +7117,22 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7176,54 +7176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="195" t="s">
+      <c r="D1" s="237"/>
+      <c r="E1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="182"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="229"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7298,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="200"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7378,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="171">
+      <c r="A4" s="254">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="290" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="292"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7414,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="294" t="s">
+      <c r="AC4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="283" t="s">
+      <c r="AD4" s="261" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="293"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="271"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7450,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="295"/>
-      <c r="AD5" s="284"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="262"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="161">
+      <c r="A6" s="248">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="286" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="288"/>
+      <c r="F6" s="266"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7488,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="295"/>
-      <c r="AD6" s="284"/>
+      <c r="AC6" s="273"/>
+      <c r="AD6" s="262"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="289"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,11 +7520,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="284"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="262"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="159">
+      <c r="A8" s="153">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7534,10 +7534,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="205"/>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="279"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7560,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="284"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="262"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="297"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="275"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="276"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7592,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="284"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="262"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="203">
+      <c r="A10" s="154">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="224"/>
       <c r="E10" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="281"/>
+      <c r="F10" s="282"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7632,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="284"/>
+      <c r="AC10" s="273"/>
+      <c r="AD10" s="262"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="160"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="36"/>
       <c r="C11" s="206"/>
       <c r="D11" s="207"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="275"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="283"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7664,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="284"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="262"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="159">
+      <c r="A12" s="153">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="282" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="274"/>
+      <c r="F12" s="285"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7702,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="284"/>
+      <c r="AC12" s="273"/>
+      <c r="AD12" s="262"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="203"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
       <c r="E13" s="280"/>
-      <c r="F13" s="281"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7734,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="284"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="262"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="233">
+      <c r="A14" s="197">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="278" t="s">
+      <c r="D14" s="180"/>
+      <c r="E14" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7774,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="295"/>
-      <c r="AD14" s="284"/>
+      <c r="AC14" s="273"/>
+      <c r="AD14" s="262"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="233"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="275"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="283"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7806,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="295"/>
-      <c r="AD15" s="284"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="262"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="233">
+      <c r="A16" s="197">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="272" t="s">
+      <c r="D16" s="169"/>
+      <c r="E16" s="287" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="274"/>
+      <c r="F16" s="285"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7844,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="295"/>
-      <c r="AD16" s="284"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="262"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="233"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="275"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="283"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7876,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="295"/>
-      <c r="AD17" s="284"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="262"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="233">
+      <c r="A18" s="197">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="272" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="274"/>
+      <c r="F18" s="285"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7914,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="284"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="262"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="233"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="276"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7946,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="284"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="262"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="159">
+      <c r="A20" s="153">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="235"/>
-      <c r="E20" s="278" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="279"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +7986,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="284"/>
+      <c r="AC20" s="273"/>
+      <c r="AD20" s="262"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="275"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="283"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8020,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="284"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="159">
+      <c r="A22" s="153">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="240" t="s">
+      <c r="C22" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="272" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="274"/>
+      <c r="F22" s="285"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8058,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="284"/>
+      <c r="AC22" s="273"/>
+      <c r="AD22" s="262"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="275"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="283"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8090,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="295"/>
-      <c r="AD23" s="284"/>
+      <c r="AC23" s="273"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="159">
+      <c r="A24" s="153">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="240" t="s">
+      <c r="C24" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="272" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="274"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8128,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="284"/>
+      <c r="AC24" s="273"/>
+      <c r="AD24" s="262"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="276"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8160,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="284"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="262"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="248">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="252"/>
-      <c r="E26" s="261" t="s">
+      <c r="D26" s="156"/>
+      <c r="E26" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="263"/>
+      <c r="F26" s="290"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8200,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="284"/>
+      <c r="AC26" s="273"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="264"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="291"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8232,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="284"/>
+      <c r="AC27" s="273"/>
+      <c r="AD27" s="262"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="248">
         <v>14</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="293" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="234" t="s">
+      <c r="C28" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="266" t="s">
+      <c r="D28" s="180"/>
+      <c r="E28" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="270"/>
+      <c r="F28" s="297"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8272,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="284"/>
+      <c r="AC28" s="273"/>
+      <c r="AD28" s="262"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="267"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="267"/>
-      <c r="F29" s="271"/>
+      <c r="A29" s="292"/>
+      <c r="B29" s="294"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8304,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="285"/>
+      <c r="AC29" s="274"/>
+      <c r="AD29" s="263"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8325,12 +8325,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8347,45 +8380,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04DB3D-0582-43C5-B1B0-A53D62F409FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CD946-0093-4233-91F7-EA34F9F1430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -570,6 +570,14 @@
       <t>コウニュウキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>90%</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2041,7 +2049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2485,6 +2493,9 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,6 +2939,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3637,7 +3651,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18:V19"/>
+      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3654,94 +3668,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="238"/>
+      <c r="E1" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227">
+      <c r="G1" s="228">
         <v>45536</v>
       </c>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="228"/>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="228"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="227">
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="230"/>
+      <c r="AK1" s="228">
         <v>45566</v>
       </c>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="228"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="228"/>
-      <c r="AR1" s="228"/>
-      <c r="AS1" s="228"/>
-      <c r="AT1" s="228"/>
-      <c r="AU1" s="228"/>
-      <c r="AV1" s="228"/>
-      <c r="AW1" s="228"/>
-      <c r="AX1" s="228"/>
-      <c r="AY1" s="228"/>
-      <c r="AZ1" s="228"/>
-      <c r="BA1" s="228"/>
-      <c r="BB1" s="228"/>
-      <c r="BC1" s="228"/>
-      <c r="BD1" s="228"/>
-      <c r="BE1" s="228"/>
-      <c r="BF1" s="228"/>
-      <c r="BG1" s="228"/>
-      <c r="BH1" s="228"/>
-      <c r="BI1" s="228"/>
-      <c r="BJ1" s="228"/>
-      <c r="BK1" s="228"/>
-      <c r="BL1" s="228"/>
-      <c r="BM1" s="228"/>
-      <c r="BN1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="229"/>
+      <c r="BG1" s="229"/>
+      <c r="BH1" s="229"/>
+      <c r="BI1" s="229"/>
+      <c r="BJ1" s="229"/>
+      <c r="BK1" s="229"/>
+      <c r="BL1" s="229"/>
+      <c r="BM1" s="229"/>
+      <c r="BN1" s="230"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3983,12 +3997,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="248"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4171,20 +4185,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="255">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="257"/>
+      <c r="E4" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="259" t="s">
+      <c r="F4" s="260" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4249,12 +4263,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="261"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4317,18 +4331,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="249">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="250" t="s">
+      <c r="D6" s="170"/>
+      <c r="E6" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="253" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4393,12 +4407,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="253"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="254"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4461,20 +4475,22 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="155">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="205"/>
-      <c r="E8" s="225" t="s">
+      <c r="D8" s="206"/>
+      <c r="E8" s="226" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="187" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -4537,12 +4553,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="203"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="204"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4605,16 +4621,18 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="208"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="216" t="s">
+      <c r="D10" s="221"/>
+      <c r="E10" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="217"/>
+      <c r="F10" s="218" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="133"/>
       <c r="H10" s="134"/>
       <c r="I10" s="134"/>
@@ -4677,12 +4695,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="209"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="218"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="219"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4745,16 +4763,18 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="208"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="210" t="s">
+      <c r="C12" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="214" t="s">
+      <c r="D12" s="212"/>
+      <c r="E12" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="217"/>
+      <c r="F12" s="218" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4817,12 +4837,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="219"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="220"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4885,20 +4905,22 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="154">
+      <c r="A14" s="155">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="204" t="s">
+      <c r="C14" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="205"/>
-      <c r="E14" s="201" t="s">
+      <c r="D14" s="206"/>
+      <c r="E14" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="203" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4961,12 +4983,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="187"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4995,7 +5017,7 @@
       <c r="AF15" s="31"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="9"/>
+      <c r="AI15" s="31"/>
       <c r="AJ15" s="70"/>
       <c r="AK15" s="81"/>
       <c r="AL15" s="9"/>
@@ -5029,18 +5051,20 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="154">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="190" t="s">
+      <c r="D16" s="170"/>
+      <c r="E16" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="190" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5103,12 +5127,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="154"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="203"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5138,8 +5162,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="83"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="300"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -5171,20 +5195,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="198">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5247,12 +5271,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="187"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="188"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5283,7 +5307,7 @@
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
       <c r="AJ19" s="72"/>
-      <c r="AK19" s="83"/>
+      <c r="AK19" s="300"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -5315,18 +5339,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="197">
+      <c r="A20" s="198">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="188" t="s">
+      <c r="D20" s="170"/>
+      <c r="E20" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="190"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5389,12 +5413,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="197"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="188"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5457,18 +5481,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="197">
+      <c r="A22" s="198">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="188" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="189"/>
+      <c r="F22" s="190"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5531,12 +5555,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="197"/>
+      <c r="A23" s="198"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5599,20 +5623,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="154">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="187"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5675,14 +5699,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="187"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="188"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5745,18 +5769,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="153">
+      <c r="A26" s="154">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="190" t="s">
+      <c r="D26" s="195"/>
+      <c r="E26" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="192"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5819,12 +5843,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="192"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="193"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5887,18 +5911,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="153">
+      <c r="A28" s="154">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="194"/>
-      <c r="E28" s="190" t="s">
+      <c r="D28" s="195"/>
+      <c r="E28" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="191"/>
+      <c r="F28" s="192"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5961,12 +5985,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="161"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="192"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="193"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6029,18 +6053,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="153">
+      <c r="A30" s="154">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="193" t="s">
+      <c r="C30" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="194"/>
-      <c r="E30" s="190" t="s">
+      <c r="D30" s="195"/>
+      <c r="E30" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="192"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6103,12 +6127,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="161"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="192"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="193"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6171,18 +6195,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="153">
+      <c r="A32" s="154">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="195"/>
+      <c r="E32" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="191"/>
+      <c r="F32" s="192"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6245,12 +6269,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="161"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="192"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="193"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6313,18 +6337,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="153">
+      <c r="A34" s="154">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="170"/>
+      <c r="E34" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="189"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6387,12 +6411,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="161"/>
+      <c r="A35" s="162"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="187"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="188"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6455,20 +6479,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="153">
+      <c r="A36" s="154">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="157"/>
+      <c r="E36" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="159"/>
+      <c r="F36" s="160"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6531,12 +6555,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="154"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="160"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6599,16 +6623,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="154"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="167"/>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="168"/>
+      <c r="E38" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6671,12 +6695,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="162"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="165"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="166"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6739,17 +6763,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="153">
+      <c r="A40" s="154">
         <v>16</v>
       </c>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="172" t="s">
+      <c r="D40" s="181"/>
+      <c r="E40" s="173" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6815,11 +6839,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="154"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="178"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6883,16 +6907,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="154"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="168" t="s">
+      <c r="A42" s="155"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="169"/>
-      <c r="E42" s="172" t="s">
+      <c r="D42" s="170"/>
+      <c r="E42" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="173"/>
+      <c r="F42" s="174"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6955,12 +6979,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="174"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="175"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7176,54 +7200,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="242" t="s">
+      <c r="D1" s="238"/>
+      <c r="E1" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="229"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="230"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="246"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7298,12 +7322,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="232"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="248"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7378,20 +7402,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="254">
+      <c r="A4" s="255">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="268" t="s">
+      <c r="D4" s="257"/>
+      <c r="E4" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="270"/>
+      <c r="F4" s="271"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7414,20 +7438,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="272" t="s">
+      <c r="AC4" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="261" t="s">
+      <c r="AD4" s="262" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="249"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="272"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7450,22 +7474,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="262"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="263"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="249">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="264" t="s">
+      <c r="D6" s="170"/>
+      <c r="E6" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="266"/>
+      <c r="F6" s="267"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7488,16 +7512,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="262"/>
+      <c r="AC6" s="274"/>
+      <c r="AD6" s="263"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="249"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="267"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="268"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7520,24 +7544,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="262"/>
+      <c r="AC7" s="274"/>
+      <c r="AD7" s="263"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="153">
+      <c r="A8" s="154">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="205"/>
-      <c r="E8" s="276" t="s">
+      <c r="D8" s="206"/>
+      <c r="E8" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="279"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7560,16 +7584,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="262"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="263"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="275"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="279"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="280"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7592,24 +7616,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="262"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="263"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="155">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="224"/>
-      <c r="E10" s="280" t="s">
+      <c r="D10" s="225"/>
+      <c r="E10" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="282"/>
+      <c r="F10" s="283"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7632,16 +7656,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="273"/>
-      <c r="AD10" s="262"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="263"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="283"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="284"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7664,22 +7688,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="273"/>
-      <c r="AD11" s="262"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="263"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="153">
+      <c r="A12" s="154">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="284" t="s">
+      <c r="D12" s="170"/>
+      <c r="E12" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="285"/>
+      <c r="F12" s="286"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7702,16 +7726,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="273"/>
-      <c r="AD12" s="262"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="263"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="280"/>
-      <c r="F13" s="282"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="283"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7734,24 +7758,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="262"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="263"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="197">
+      <c r="A14" s="198">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="286" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="287" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7774,16 +7798,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="273"/>
-      <c r="AD14" s="262"/>
+      <c r="AC14" s="274"/>
+      <c r="AD14" s="263"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="197"/>
+      <c r="A15" s="198"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="283"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="284"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7806,22 +7830,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="262"/>
+      <c r="AC15" s="274"/>
+      <c r="AD15" s="263"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="197">
+      <c r="A16" s="198">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="287" t="s">
+      <c r="D16" s="170"/>
+      <c r="E16" s="288" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="285"/>
+      <c r="F16" s="286"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7844,16 +7868,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="273"/>
-      <c r="AD16" s="262"/>
+      <c r="AC16" s="274"/>
+      <c r="AD16" s="263"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="197"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="283"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="284"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7876,22 +7900,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="262"/>
+      <c r="AC17" s="274"/>
+      <c r="AD17" s="263"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="197">
+      <c r="A18" s="198">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="287" t="s">
+      <c r="D18" s="170"/>
+      <c r="E18" s="288" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="285"/>
+      <c r="F18" s="286"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7914,16 +7938,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="273"/>
-      <c r="AD18" s="262"/>
+      <c r="AC18" s="274"/>
+      <c r="AD18" s="263"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="279"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7946,24 +7970,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="262"/>
+      <c r="AC19" s="274"/>
+      <c r="AD19" s="263"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="153">
+      <c r="A20" s="154">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="286" t="s">
+      <c r="D20" s="181"/>
+      <c r="E20" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="278"/>
+      <c r="F20" s="279"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7986,18 +8010,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="273"/>
-      <c r="AD20" s="262"/>
+      <c r="AC20" s="274"/>
+      <c r="AD20" s="263"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="283"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="284"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8020,22 +8044,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="262"/>
+      <c r="AC21" s="274"/>
+      <c r="AD21" s="263"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="153">
+      <c r="A22" s="154">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="287" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="288" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="285"/>
+      <c r="F22" s="286"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8058,16 +8082,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="273"/>
-      <c r="AD22" s="262"/>
+      <c r="AC22" s="274"/>
+      <c r="AD22" s="263"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="283"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="284"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8090,22 +8114,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="273"/>
-      <c r="AD23" s="262"/>
+      <c r="AC23" s="274"/>
+      <c r="AD23" s="263"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="154">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="287" t="s">
+      <c r="D24" s="170"/>
+      <c r="E24" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="285"/>
+      <c r="F24" s="286"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8128,16 +8152,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="273"/>
-      <c r="AD24" s="262"/>
+      <c r="AC24" s="274"/>
+      <c r="AD24" s="263"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="282"/>
+      <c r="F25" s="280"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8160,24 +8184,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="262"/>
+      <c r="AC25" s="274"/>
+      <c r="AD25" s="263"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="248">
+      <c r="A26" s="249">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="288" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="289" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="290"/>
+      <c r="F26" s="291"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8200,16 +8224,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="273"/>
-      <c r="AD26" s="262"/>
+      <c r="AC26" s="274"/>
+      <c r="AD26" s="263"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="249"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="291"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="292"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8232,24 +8256,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="262"/>
+      <c r="AC27" s="274"/>
+      <c r="AD27" s="263"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="248">
+      <c r="A28" s="249">
         <v>14</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="293" t="s">
+      <c r="D28" s="181"/>
+      <c r="E28" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="297"/>
+      <c r="F28" s="298"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8272,16 +8296,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="273"/>
-      <c r="AD28" s="262"/>
+      <c r="AC28" s="274"/>
+      <c r="AD28" s="263"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="292"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="298"/>
+      <c r="A29" s="293"/>
+      <c r="B29" s="295"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="295"/>
+      <c r="F29" s="299"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8304,8 +8328,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="274"/>
-      <c r="AD29" s="263"/>
+      <c r="AC29" s="275"/>
+      <c r="AD29" s="264"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CD946-0093-4233-91F7-EA34F9F1430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405636A4-7584-484F-AB2D-E5E1D5F2C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,7 +2049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2496,6 +2496,12 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,9 +2945,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3651,7 +3654,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
+      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3668,94 +3671,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="243" t="s">
+      <c r="D1" s="240"/>
+      <c r="E1" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="228">
+      <c r="G1" s="230">
         <v>45536</v>
       </c>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="230"/>
-      <c r="AK1" s="228">
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="231"/>
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="231"/>
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="231"/>
+      <c r="AH1" s="231"/>
+      <c r="AI1" s="231"/>
+      <c r="AJ1" s="232"/>
+      <c r="AK1" s="230">
         <v>45566</v>
       </c>
-      <c r="AL1" s="229"/>
-      <c r="AM1" s="229"/>
-      <c r="AN1" s="229"/>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="229"/>
-      <c r="AU1" s="229"/>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="229"/>
-      <c r="BC1" s="229"/>
-      <c r="BD1" s="229"/>
-      <c r="BE1" s="229"/>
-      <c r="BF1" s="229"/>
-      <c r="BG1" s="229"/>
-      <c r="BH1" s="229"/>
-      <c r="BI1" s="229"/>
-      <c r="BJ1" s="229"/>
-      <c r="BK1" s="229"/>
-      <c r="BL1" s="229"/>
-      <c r="BM1" s="229"/>
-      <c r="BN1" s="230"/>
+      <c r="AL1" s="231"/>
+      <c r="AM1" s="231"/>
+      <c r="AN1" s="231"/>
+      <c r="AO1" s="231"/>
+      <c r="AP1" s="231"/>
+      <c r="AQ1" s="231"/>
+      <c r="AR1" s="231"/>
+      <c r="AS1" s="231"/>
+      <c r="AT1" s="231"/>
+      <c r="AU1" s="231"/>
+      <c r="AV1" s="231"/>
+      <c r="AW1" s="231"/>
+      <c r="AX1" s="231"/>
+      <c r="AY1" s="231"/>
+      <c r="AZ1" s="231"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
+      <c r="BC1" s="231"/>
+      <c r="BD1" s="231"/>
+      <c r="BE1" s="231"/>
+      <c r="BF1" s="231"/>
+      <c r="BG1" s="231"/>
+      <c r="BH1" s="231"/>
+      <c r="BI1" s="231"/>
+      <c r="BJ1" s="231"/>
+      <c r="BK1" s="231"/>
+      <c r="BL1" s="231"/>
+      <c r="BM1" s="231"/>
+      <c r="BN1" s="232"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="247"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="249"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3997,12 +4000,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="233"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="248"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="250"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4185,20 +4188,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="255">
+      <c r="A4" s="257">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="259"/>
+      <c r="E4" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="262" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4263,12 +4266,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="250"/>
+      <c r="A5" s="252"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="261"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="263"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4331,18 +4334,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="249">
+      <c r="A6" s="251">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="251" t="s">
+      <c r="D6" s="172"/>
+      <c r="E6" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="253" t="s">
+      <c r="F6" s="255" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4407,12 +4410,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="250"/>
+      <c r="A7" s="252"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="254"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="256"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4475,20 +4478,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="155">
+      <c r="A8" s="157">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="226" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="189" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="38"/>
@@ -4553,12 +4556,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="162"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="204"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4621,16 +4624,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="209"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="217" t="s">
+      <c r="D10" s="223"/>
+      <c r="E10" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="220" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="133"/>
@@ -4695,12 +4698,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="210"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="219"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4763,16 +4766,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="209"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="215" t="s">
+      <c r="D12" s="214"/>
+      <c r="E12" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="220" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="120"/>
@@ -4837,12 +4840,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="220"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="222"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4905,20 +4908,20 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="155">
+      <c r="A14" s="157">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="205" t="s">
+      <c r="C14" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="202" t="s">
+      <c r="D14" s="208"/>
+      <c r="E14" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="203" t="s">
+      <c r="F14" s="205" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="50"/>
@@ -4983,12 +4986,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="162"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="188"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="190"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5051,18 +5054,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="154">
+      <c r="A16" s="156">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="192" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="51"/>
@@ -5127,12 +5130,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="155"/>
+      <c r="A17" s="157"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="205"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5163,7 +5166,7 @@
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
       <c r="AJ17" s="151"/>
-      <c r="AK17" s="300"/>
+      <c r="AK17" s="152"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -5195,20 +5198,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="198">
+      <c r="A18" s="200">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="185" t="s">
+      <c r="D18" s="183"/>
+      <c r="E18" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="189"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5271,12 +5274,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="198"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="188"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5307,15 +5310,15 @@
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
       <c r="AJ19" s="72"/>
-      <c r="AK19" s="300"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
+      <c r="AK19" s="152"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
       <c r="AN19" s="25"/>
       <c r="AO19" s="26"/>
       <c r="AP19" s="24"/>
       <c r="AQ19" s="24"/>
       <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
+      <c r="AS19" s="32"/>
       <c r="AT19" s="24"/>
       <c r="AU19" s="25"/>
       <c r="AV19" s="26"/>
@@ -5339,18 +5342,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="198">
+      <c r="A20" s="200">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="199" t="s">
+      <c r="C20" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="189" t="s">
+      <c r="D20" s="172"/>
+      <c r="E20" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="190"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5413,12 +5416,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="198"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="188"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="190"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5454,8 +5457,8 @@
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
       <c r="AO21" s="26"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="24"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
       <c r="AR21" s="24"/>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
@@ -5481,18 +5484,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="198">
+      <c r="A22" s="200">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="199" t="s">
+      <c r="C22" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="189" t="s">
+      <c r="D22" s="172"/>
+      <c r="E22" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="190"/>
+      <c r="F22" s="192"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5555,12 +5558,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="198"/>
+      <c r="A23" s="200"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="201"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5596,10 +5599,10 @@
       <c r="AM23" s="66"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="23"/>
-      <c r="AP23" s="66"/>
+      <c r="AP23" s="153"/>
       <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
+      <c r="AR23" s="153"/>
+      <c r="AS23" s="153"/>
       <c r="AT23" s="66"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="23"/>
@@ -5623,20 +5626,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="154">
+      <c r="A24" s="156">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="185" t="s">
+      <c r="D24" s="183"/>
+      <c r="E24" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="187"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5699,14 +5702,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="162"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="184"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="188"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="190"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5769,18 +5772,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="154">
+      <c r="A26" s="156">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="191" t="s">
+      <c r="D26" s="197"/>
+      <c r="E26" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="192"/>
+      <c r="F26" s="194"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5843,12 +5846,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="193"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="195"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5911,18 +5914,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="154">
+      <c r="A28" s="156">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="195"/>
-      <c r="E28" s="191" t="s">
+      <c r="D28" s="197"/>
+      <c r="E28" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="192"/>
+      <c r="F28" s="194"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5985,12 +5988,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="162"/>
+      <c r="A29" s="164"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="193"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="195"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6053,18 +6056,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="154">
+      <c r="A30" s="156">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="194" t="s">
+      <c r="C30" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="195"/>
-      <c r="E30" s="191" t="s">
+      <c r="D30" s="197"/>
+      <c r="E30" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="192"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6127,12 +6130,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="162"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="193"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="195"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6195,18 +6198,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="154">
+      <c r="A32" s="156">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="195"/>
-      <c r="E32" s="191" t="s">
+      <c r="D32" s="197"/>
+      <c r="E32" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="192"/>
+      <c r="F32" s="194"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6269,12 +6272,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="162"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="193"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="195"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6337,18 +6340,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="154">
+      <c r="A34" s="156">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="169" t="s">
+      <c r="C34" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="170"/>
-      <c r="E34" s="189" t="s">
+      <c r="D34" s="172"/>
+      <c r="E34" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="190"/>
+      <c r="F34" s="192"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6411,12 +6414,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="162"/>
+      <c r="A35" s="164"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="188"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="190"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6479,20 +6482,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="154">
+      <c r="A36" s="156">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="152" t="s">
+      <c r="D36" s="159"/>
+      <c r="E36" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="160"/>
+      <c r="F36" s="162"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6555,12 +6558,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="155"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="161"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="163"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6623,16 +6626,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="155"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="167" t="s">
+      <c r="C38" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="168"/>
-      <c r="E38" s="163" t="s">
+      <c r="D38" s="170"/>
+      <c r="E38" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="165"/>
+      <c r="F38" s="167"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6695,12 +6698,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="162"/>
+      <c r="A39" s="164"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="166"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="168"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6763,17 +6766,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="154">
+      <c r="A40" s="156">
         <v>16</v>
       </c>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="180" t="s">
+      <c r="C40" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="181"/>
-      <c r="E40" s="173" t="s">
+      <c r="D40" s="183"/>
+      <c r="E40" s="175" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6839,11 +6842,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="179"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="181"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6907,16 +6910,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="155"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="169" t="s">
+      <c r="A42" s="157"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="170"/>
-      <c r="E42" s="173" t="s">
+      <c r="D42" s="172"/>
+      <c r="E42" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="174"/>
+      <c r="F42" s="176"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6979,12 +6982,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="162"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="175"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="177"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7200,54 +7203,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="243" t="s">
+      <c r="D1" s="240"/>
+      <c r="E1" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="228"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="231"/>
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="231"/>
+      <c r="AD1" s="232"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="247"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="249"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7322,12 +7325,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="233"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="248"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="250"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7402,20 +7405,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="255">
+      <c r="A4" s="257">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="269" t="s">
+      <c r="D4" s="259"/>
+      <c r="E4" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="271"/>
+      <c r="F4" s="273"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7438,20 +7441,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="273" t="s">
+      <c r="AC4" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="262" t="s">
+      <c r="AD4" s="264" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="250"/>
+      <c r="A5" s="252"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="272"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="274"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7474,22 +7477,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="263"/>
+      <c r="AC5" s="276"/>
+      <c r="AD5" s="265"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="249">
+      <c r="A6" s="251">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="265" t="s">
+      <c r="D6" s="172"/>
+      <c r="E6" s="267" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="267"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7512,16 +7515,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="274"/>
-      <c r="AD6" s="263"/>
+      <c r="AC6" s="276"/>
+      <c r="AD6" s="265"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="250"/>
+      <c r="A7" s="252"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="268"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="270"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7544,24 +7547,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="274"/>
-      <c r="AD7" s="263"/>
+      <c r="AC7" s="276"/>
+      <c r="AD7" s="265"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="154">
+      <c r="A8" s="156">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="277" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="279"/>
+      <c r="F8" s="281"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7584,16 +7587,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="263"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="265"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="162"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="280"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="282"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7616,24 +7619,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="263"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="265"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="155">
+      <c r="A10" s="157">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="281" t="s">
+      <c r="D10" s="227"/>
+      <c r="E10" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="283"/>
+      <c r="F10" s="285"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7656,16 +7659,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="274"/>
-      <c r="AD10" s="263"/>
+      <c r="AC10" s="276"/>
+      <c r="AD10" s="265"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="162"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="284"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7688,22 +7691,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="263"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="265"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="154">
+      <c r="A12" s="156">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="285" t="s">
+      <c r="D12" s="172"/>
+      <c r="E12" s="287" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="286"/>
+      <c r="F12" s="288"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7726,16 +7729,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="263"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="265"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="283"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="285"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7758,24 +7761,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="274"/>
-      <c r="AD13" s="263"/>
+      <c r="AC13" s="276"/>
+      <c r="AD13" s="265"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="198">
+      <c r="A14" s="200">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="287" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="281"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7798,16 +7801,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="274"/>
-      <c r="AD14" s="263"/>
+      <c r="AC14" s="276"/>
+      <c r="AD14" s="265"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="198"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="284"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="286"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7830,22 +7833,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="274"/>
-      <c r="AD15" s="263"/>
+      <c r="AC15" s="276"/>
+      <c r="AD15" s="265"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="198">
+      <c r="A16" s="200">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="288" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="290" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="286"/>
+      <c r="F16" s="288"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7868,16 +7871,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="274"/>
-      <c r="AD16" s="263"/>
+      <c r="AC16" s="276"/>
+      <c r="AD16" s="265"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="198"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="284"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="284"/>
+      <c r="F17" s="286"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7900,22 +7903,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="274"/>
-      <c r="AD17" s="263"/>
+      <c r="AC17" s="276"/>
+      <c r="AD17" s="265"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="198">
+      <c r="A18" s="200">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="288" t="s">
+      <c r="D18" s="172"/>
+      <c r="E18" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="286"/>
+      <c r="F18" s="288"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7938,16 +7941,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="274"/>
-      <c r="AD18" s="263"/>
+      <c r="AC18" s="276"/>
+      <c r="AD18" s="265"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="198"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="278"/>
-      <c r="F19" s="280"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="282"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7970,24 +7973,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="274"/>
-      <c r="AD19" s="263"/>
+      <c r="AC19" s="276"/>
+      <c r="AD19" s="265"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="154">
+      <c r="A20" s="156">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="287" t="s">
+      <c r="D20" s="183"/>
+      <c r="E20" s="289" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="279"/>
+      <c r="F20" s="281"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8010,18 +8013,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="274"/>
-      <c r="AD20" s="263"/>
+      <c r="AC20" s="276"/>
+      <c r="AD20" s="265"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="162"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="284"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="286"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8044,22 +8047,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="274"/>
-      <c r="AD21" s="263"/>
+      <c r="AC21" s="276"/>
+      <c r="AD21" s="265"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="154">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="288" t="s">
+      <c r="D22" s="172"/>
+      <c r="E22" s="290" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="286"/>
+      <c r="F22" s="288"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8082,16 +8085,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="274"/>
-      <c r="AD22" s="263"/>
+      <c r="AC22" s="276"/>
+      <c r="AD22" s="265"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="162"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="284"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="286"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8114,22 +8117,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="274"/>
-      <c r="AD23" s="263"/>
+      <c r="AC23" s="276"/>
+      <c r="AD23" s="265"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="154">
+      <c r="A24" s="156">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="288" t="s">
+      <c r="D24" s="172"/>
+      <c r="E24" s="290" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="286"/>
+      <c r="F24" s="288"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8152,16 +8155,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="274"/>
-      <c r="AD24" s="263"/>
+      <c r="AC24" s="276"/>
+      <c r="AD24" s="265"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="162"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="280"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="284"/>
+      <c r="F25" s="282"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8184,24 +8187,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="274"/>
-      <c r="AD25" s="263"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="265"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="249">
+      <c r="A26" s="251">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="157"/>
-      <c r="E26" s="289" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="291"/>
+      <c r="F26" s="293"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8224,16 +8227,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="274"/>
-      <c r="AD26" s="263"/>
+      <c r="AC26" s="276"/>
+      <c r="AD26" s="265"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="250"/>
+      <c r="A27" s="252"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="292"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="294"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8256,24 +8259,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="274"/>
-      <c r="AD27" s="263"/>
+      <c r="AC27" s="276"/>
+      <c r="AD27" s="265"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="249">
+      <c r="A28" s="251">
         <v>14</v>
       </c>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="296" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="180" t="s">
+      <c r="C28" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="294" t="s">
+      <c r="D28" s="183"/>
+      <c r="E28" s="296" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="298"/>
+      <c r="F28" s="300"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8296,16 +8299,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="274"/>
-      <c r="AD28" s="263"/>
+      <c r="AC28" s="276"/>
+      <c r="AD28" s="265"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="293"/>
-      <c r="B29" s="295"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="295"/>
-      <c r="F29" s="299"/>
+      <c r="A29" s="295"/>
+      <c r="B29" s="297"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="301"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8328,8 +8331,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="275"/>
-      <c r="AD29" s="264"/>
+      <c r="AC29" s="277"/>
+      <c r="AD29" s="266"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405636A4-7584-484F-AB2D-E5E1D5F2C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A16FE7-6230-4AD9-8334-118E24EBEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="60">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -576,7 +576,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>90%</t>
+    <t>100%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2049,7 +2049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2502,18 +2502,306 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2532,15 +2820,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2550,287 +2832,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2880,71 +2946,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3654,7 +3657,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3671,94 +3674,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="239" t="s">
+      <c r="C1" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="245" t="s">
+      <c r="D1" s="193"/>
+      <c r="E1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="248" t="s">
+      <c r="F1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="230">
+      <c r="G1" s="183">
         <v>45536</v>
       </c>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="231"/>
-      <c r="AI1" s="231"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="230">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
+      <c r="AG1" s="184"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="183">
         <v>45566</v>
       </c>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="231"/>
-      <c r="AN1" s="231"/>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="231"/>
-      <c r="AR1" s="231"/>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="231"/>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="231"/>
-      <c r="BI1" s="231"/>
-      <c r="BJ1" s="231"/>
-      <c r="BK1" s="231"/>
-      <c r="BL1" s="231"/>
-      <c r="BM1" s="231"/>
-      <c r="BN1" s="232"/>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="184"/>
+      <c r="AO1" s="184"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="184"/>
+      <c r="AS1" s="184"/>
+      <c r="AT1" s="184"/>
+      <c r="AU1" s="184"/>
+      <c r="AV1" s="184"/>
+      <c r="AW1" s="184"/>
+      <c r="AX1" s="184"/>
+      <c r="AY1" s="184"/>
+      <c r="AZ1" s="184"/>
+      <c r="BA1" s="184"/>
+      <c r="BB1" s="184"/>
+      <c r="BC1" s="184"/>
+      <c r="BD1" s="184"/>
+      <c r="BE1" s="184"/>
+      <c r="BF1" s="184"/>
+      <c r="BG1" s="184"/>
+      <c r="BH1" s="184"/>
+      <c r="BI1" s="184"/>
+      <c r="BJ1" s="184"/>
+      <c r="BK1" s="184"/>
+      <c r="BL1" s="184"/>
+      <c r="BM1" s="184"/>
+      <c r="BN1" s="185"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="249"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -4000,12 +4003,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="235"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="250"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4188,20 +4191,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="257">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="259"/>
-      <c r="E4" s="260" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="181" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4266,12 +4269,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="252"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="182"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4334,18 +4337,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="251">
+      <c r="A6" s="164">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="253" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="255" t="s">
+      <c r="F6" s="172" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4410,12 +4413,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="252"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4478,7 +4481,7 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="157">
+      <c r="A8" s="206">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -4488,10 +4491,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="208"/>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="204" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="38"/>
@@ -4556,12 +4559,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="205"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4624,16 +4627,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="211"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="219" t="s">
+      <c r="D10" s="226"/>
+      <c r="E10" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="220" t="s">
+      <c r="F10" s="223" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="133"/>
@@ -4698,12 +4701,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="212"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="221"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4766,16 +4769,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="211"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="217"/>
+      <c r="E12" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="220" t="s">
+      <c r="F12" s="223" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="120"/>
@@ -4840,12 +4843,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="212"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="222"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="225"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4908,7 +4911,7 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="157">
+      <c r="A14" s="206">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4918,10 +4921,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="208"/>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="205" t="s">
+      <c r="F14" s="212" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="50"/>
@@ -4986,12 +4989,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="164"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="36"/>
       <c r="C15" s="209"/>
       <c r="D15" s="210"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="190"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="213"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5054,19 +5057,19 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="156">
+      <c r="A16" s="162">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="167"/>
+      <c r="E16" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="192" t="s">
-        <v>59</v>
+      <c r="F16" s="235" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
@@ -5130,12 +5133,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="157"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="212"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5198,20 +5201,22 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="200">
+      <c r="A18" s="236">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="187" t="s">
+      <c r="D18" s="238"/>
+      <c r="E18" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="189"/>
+      <c r="F18" s="204" t="s">
+        <v>59</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -5274,12 +5279,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="200"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="213"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5319,7 +5324,7 @@
       <c r="AQ19" s="24"/>
       <c r="AR19" s="24"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="24"/>
+      <c r="AT19" s="32"/>
       <c r="AU19" s="25"/>
       <c r="AV19" s="26"/>
       <c r="AW19" s="26"/>
@@ -5342,18 +5347,20 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="200">
+      <c r="A20" s="236">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="191" t="s">
+      <c r="D20" s="167"/>
+      <c r="E20" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="192"/>
+      <c r="F20" s="235" t="s">
+        <v>59</v>
+      </c>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5416,12 +5423,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="200"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="190"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="213"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5484,18 +5491,20 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="200">
+      <c r="A22" s="236">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="201" t="s">
+      <c r="C22" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="191" t="s">
+      <c r="D22" s="167"/>
+      <c r="E22" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="192"/>
+      <c r="F22" s="235" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5558,12 +5567,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="200"/>
+      <c r="A23" s="236"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="242"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5603,7 +5612,7 @@
       <c r="AQ23" s="66"/>
       <c r="AR23" s="153"/>
       <c r="AS23" s="153"/>
-      <c r="AT23" s="66"/>
+      <c r="AT23" s="153"/>
       <c r="AU23" s="17"/>
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
@@ -5626,20 +5635,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="162">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="187" t="s">
+      <c r="D24" s="238"/>
+      <c r="E24" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="204"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5702,14 +5711,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="164"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="190"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="213"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5749,7 +5758,7 @@
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
+      <c r="AT25" s="302"/>
       <c r="AU25" s="13"/>
       <c r="AV25" s="19"/>
       <c r="AW25" s="19"/>
@@ -5772,18 +5781,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="162">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="196" t="s">
+      <c r="C26" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="193" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="194"/>
+      <c r="F26" s="156"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5846,12 +5855,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="164"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="195"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5914,18 +5923,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="162">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="193" t="s">
+      <c r="D28" s="159"/>
+      <c r="E28" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="194"/>
+      <c r="F28" s="156"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5988,12 +5997,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="164"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="195"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6056,18 +6065,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="156">
+      <c r="A30" s="162">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="193" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="194"/>
+      <c r="F30" s="156"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6130,12 +6139,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="164"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="157"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6198,18 +6207,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="156">
+      <c r="A32" s="162">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="196" t="s">
+      <c r="C32" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="193" t="s">
+      <c r="D32" s="159"/>
+      <c r="E32" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="194"/>
+      <c r="F32" s="156"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6272,12 +6281,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="164"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="195"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="157"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6340,18 +6349,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="156">
+      <c r="A34" s="162">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="171" t="s">
+      <c r="C34" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="167"/>
+      <c r="E34" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="192"/>
+      <c r="F34" s="235"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6414,12 +6423,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="164"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="190"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="213"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6482,20 +6491,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="156">
+      <c r="A36" s="162">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="158" t="s">
+      <c r="C36" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="159"/>
-      <c r="E36" s="154" t="s">
+      <c r="D36" s="255"/>
+      <c r="E36" s="252" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="162"/>
+      <c r="F36" s="258"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6558,12 +6567,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="157"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="163"/>
+      <c r="C37" s="256"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="253"/>
+      <c r="F37" s="259"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6626,16 +6635,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="157"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="165" t="s">
+      <c r="D38" s="178"/>
+      <c r="E38" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="167"/>
+      <c r="F38" s="261"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6698,12 +6707,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="164"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="168"/>
+      <c r="C39" s="256"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="262"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6766,17 +6775,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="156">
+      <c r="A40" s="162">
         <v>16</v>
       </c>
-      <c r="B40" s="178" t="s">
+      <c r="B40" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="175" t="s">
+      <c r="D40" s="238"/>
+      <c r="E40" s="244" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6842,11 +6851,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="181"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="251"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6910,16 +6919,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="171" t="s">
+      <c r="A42" s="206"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="175" t="s">
+      <c r="D42" s="167"/>
+      <c r="E42" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="176"/>
+      <c r="F42" s="246"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6982,12 +6991,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="164"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="177"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="245"/>
+      <c r="F43" s="247"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7073,29 +7082,54 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
@@ -7112,54 +7146,29 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7203,54 +7212,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="239" t="s">
+      <c r="C1" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="240"/>
-      <c r="E1" s="245" t="s">
+      <c r="D1" s="193"/>
+      <c r="E1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="248" t="s">
+      <c r="F1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="232"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="185"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="249"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7325,12 +7334,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="235"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="250"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7405,20 +7414,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="257">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="259"/>
-      <c r="E4" s="271" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="273"/>
+      <c r="F4" s="295"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7441,20 +7450,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="275" t="s">
+      <c r="AC4" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="264" t="s">
+      <c r="AD4" s="286" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="252"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="274"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="296"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7477,22 +7486,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="276"/>
-      <c r="AD5" s="265"/>
+      <c r="AC5" s="298"/>
+      <c r="AD5" s="287"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="251">
+      <c r="A6" s="164">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="267" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="289" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="269"/>
+      <c r="F6" s="291"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7515,16 +7524,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="276"/>
-      <c r="AD6" s="265"/>
+      <c r="AC6" s="298"/>
+      <c r="AD6" s="287"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="252"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="270"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="292"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7547,11 +7556,11 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="276"/>
-      <c r="AD7" s="265"/>
+      <c r="AC7" s="298"/>
+      <c r="AD7" s="287"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="156">
+      <c r="A8" s="162">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -7561,10 +7570,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="208"/>
-      <c r="E8" s="279" t="s">
+      <c r="E8" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="281"/>
+      <c r="F8" s="282"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7587,16 +7596,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="265"/>
+      <c r="AC8" s="298"/>
+      <c r="AD8" s="287"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="278"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="300"/>
       <c r="E9" s="280"/>
-      <c r="F9" s="282"/>
+      <c r="F9" s="279"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7619,24 +7628,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="265"/>
+      <c r="AC9" s="298"/>
+      <c r="AD9" s="287"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="157">
+      <c r="A10" s="206">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="230"/>
       <c r="E10" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="285"/>
+      <c r="F10" s="284"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7659,16 +7668,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="265"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="287"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="164"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="36"/>
       <c r="C11" s="209"/>
       <c r="D11" s="210"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="286"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="278"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7691,22 +7700,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="265"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="287"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="156">
+      <c r="A12" s="162">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="287" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="288"/>
+      <c r="F12" s="277"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7729,16 +7738,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="265"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="287"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="157"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="234"/>
       <c r="E13" s="283"/>
-      <c r="F13" s="285"/>
+      <c r="F13" s="284"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7761,24 +7770,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="265"/>
+      <c r="AC13" s="298"/>
+      <c r="AD13" s="287"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="200">
+      <c r="A14" s="236">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="289" t="s">
+      <c r="D14" s="238"/>
+      <c r="E14" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="281"/>
+      <c r="F14" s="282"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7801,16 +7810,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="276"/>
-      <c r="AD14" s="265"/>
+      <c r="AC14" s="298"/>
+      <c r="AD14" s="287"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="200"/>
+      <c r="A15" s="236"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="286"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="278"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7833,22 +7842,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="265"/>
+      <c r="AC15" s="298"/>
+      <c r="AD15" s="287"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="200">
+      <c r="A16" s="236">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="290" t="s">
+      <c r="D16" s="167"/>
+      <c r="E16" s="275" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="288"/>
+      <c r="F16" s="277"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7871,16 +7880,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="265"/>
+      <c r="AC16" s="298"/>
+      <c r="AD16" s="287"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="200"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="286"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="276"/>
+      <c r="F17" s="278"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7903,22 +7912,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="276"/>
-      <c r="AD17" s="265"/>
+      <c r="AC17" s="298"/>
+      <c r="AD17" s="287"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="200">
+      <c r="A18" s="236">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="290" t="s">
+      <c r="D18" s="167"/>
+      <c r="E18" s="275" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="288"/>
+      <c r="F18" s="277"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7941,16 +7950,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="276"/>
-      <c r="AD18" s="265"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="287"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="200"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="280"/>
-      <c r="F19" s="282"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7973,24 +7982,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="265"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="287"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="156">
+      <c r="A20" s="162">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="289" t="s">
+      <c r="D20" s="238"/>
+      <c r="E20" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="281"/>
+      <c r="F20" s="282"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8013,18 +8022,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="276"/>
-      <c r="AD20" s="265"/>
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="287"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="164"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="284"/>
-      <c r="F21" s="286"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="278"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8047,22 +8056,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="276"/>
-      <c r="AD21" s="265"/>
+      <c r="AC21" s="298"/>
+      <c r="AD21" s="287"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="156">
+      <c r="A22" s="162">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="290" t="s">
+      <c r="D22" s="167"/>
+      <c r="E22" s="275" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="288"/>
+      <c r="F22" s="277"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8085,16 +8094,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="276"/>
-      <c r="AD22" s="265"/>
+      <c r="AC22" s="298"/>
+      <c r="AD22" s="287"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="164"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="286"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="278"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8117,22 +8126,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="276"/>
-      <c r="AD23" s="265"/>
+      <c r="AC23" s="298"/>
+      <c r="AD23" s="287"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="162">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="290" t="s">
+      <c r="D24" s="167"/>
+      <c r="E24" s="275" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="288"/>
+      <c r="F24" s="277"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8155,16 +8164,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="276"/>
-      <c r="AD24" s="265"/>
+      <c r="AC24" s="298"/>
+      <c r="AD24" s="287"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="164"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="284"/>
-      <c r="F25" s="282"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8187,24 +8196,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="265"/>
+      <c r="AC25" s="298"/>
+      <c r="AD25" s="287"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="251">
+      <c r="A26" s="164">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="291" t="s">
+      <c r="D26" s="255"/>
+      <c r="E26" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="293"/>
+      <c r="F26" s="266"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8227,16 +8236,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="276"/>
-      <c r="AD26" s="265"/>
+      <c r="AC26" s="298"/>
+      <c r="AD26" s="287"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="252"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="292"/>
-      <c r="F27" s="294"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="267"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8259,24 +8268,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="276"/>
-      <c r="AD27" s="265"/>
+      <c r="AC27" s="298"/>
+      <c r="AD27" s="287"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="251">
+      <c r="A28" s="164">
         <v>14</v>
       </c>
-      <c r="B28" s="296" t="s">
+      <c r="B28" s="269" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="296" t="s">
+      <c r="D28" s="238"/>
+      <c r="E28" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="300"/>
+      <c r="F28" s="273"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8299,16 +8308,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="276"/>
-      <c r="AD28" s="265"/>
+      <c r="AC28" s="298"/>
+      <c r="AD28" s="287"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="295"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="298"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="301"/>
+      <c r="A29" s="268"/>
+      <c r="B29" s="270"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="274"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8331,8 +8340,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="277"/>
-      <c r="AD29" s="266"/>
+      <c r="AC29" s="299"/>
+      <c r="AD29" s="288"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8352,45 +8361,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8407,12 +8383,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A16FE7-6230-4AD9-8334-118E24EBEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF0BD0-4089-4A80-BC43-0C3E3F40FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -2502,6 +2502,9 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,9 +2948,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3657,7 +3657,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3674,94 +3674,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="194"/>
+      <c r="E1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="183">
+      <c r="G1" s="184">
         <v>45536</v>
       </c>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="184"/>
-      <c r="AG1" s="184"/>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="184"/>
-      <c r="AJ1" s="185"/>
-      <c r="AK1" s="183">
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="184">
         <v>45566</v>
       </c>
-      <c r="AL1" s="184"/>
-      <c r="AM1" s="184"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="184"/>
-      <c r="AP1" s="184"/>
-      <c r="AQ1" s="184"/>
-      <c r="AR1" s="184"/>
-      <c r="AS1" s="184"/>
-      <c r="AT1" s="184"/>
-      <c r="AU1" s="184"/>
-      <c r="AV1" s="184"/>
-      <c r="AW1" s="184"/>
-      <c r="AX1" s="184"/>
-      <c r="AY1" s="184"/>
-      <c r="AZ1" s="184"/>
-      <c r="BA1" s="184"/>
-      <c r="BB1" s="184"/>
-      <c r="BC1" s="184"/>
-      <c r="BD1" s="184"/>
-      <c r="BE1" s="184"/>
-      <c r="BF1" s="184"/>
-      <c r="BG1" s="184"/>
-      <c r="BH1" s="184"/>
-      <c r="BI1" s="184"/>
-      <c r="BJ1" s="184"/>
-      <c r="BK1" s="184"/>
-      <c r="BL1" s="184"/>
-      <c r="BM1" s="184"/>
-      <c r="BN1" s="185"/>
+      <c r="AL1" s="185"/>
+      <c r="AM1" s="185"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="185"/>
+      <c r="AP1" s="185"/>
+      <c r="AQ1" s="185"/>
+      <c r="AR1" s="185"/>
+      <c r="AS1" s="185"/>
+      <c r="AT1" s="185"/>
+      <c r="AU1" s="185"/>
+      <c r="AV1" s="185"/>
+      <c r="AW1" s="185"/>
+      <c r="AX1" s="185"/>
+      <c r="AY1" s="185"/>
+      <c r="AZ1" s="185"/>
+      <c r="BA1" s="185"/>
+      <c r="BB1" s="185"/>
+      <c r="BC1" s="185"/>
+      <c r="BD1" s="185"/>
+      <c r="BE1" s="185"/>
+      <c r="BF1" s="185"/>
+      <c r="BG1" s="185"/>
+      <c r="BH1" s="185"/>
+      <c r="BI1" s="185"/>
+      <c r="BJ1" s="185"/>
+      <c r="BK1" s="185"/>
+      <c r="BL1" s="185"/>
+      <c r="BM1" s="185"/>
+      <c r="BN1" s="186"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="202"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="203"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -4003,12 +4003,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="203"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -4191,20 +4191,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="174">
+      <c r="A4" s="175">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="179" t="s">
+      <c r="D4" s="177"/>
+      <c r="E4" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="182" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="93"/>
@@ -4269,12 +4269,12 @@
       <c r="BN4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="165"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="182"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="95"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -4337,18 +4337,18 @@
       <c r="BN5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="164">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="170" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="173" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="51"/>
@@ -4413,12 +4413,12 @@
       <c r="BN6" s="71"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="165"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="96"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="173"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -4481,20 +4481,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="206">
+      <c r="A8" s="207">
         <v>3</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="231" t="s">
+      <c r="D8" s="209"/>
+      <c r="E8" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="205" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="38"/>
@@ -4559,12 +4559,12 @@
       <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="205"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="113"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
@@ -4627,16 +4627,16 @@
       <c r="BN9" s="118"/>
     </row>
     <row r="10" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A10" s="214"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="226"/>
-      <c r="E10" s="222" t="s">
+      <c r="D10" s="227"/>
+      <c r="E10" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="224" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="133"/>
@@ -4701,12 +4701,12 @@
       <c r="BN10" s="138"/>
     </row>
     <row r="11" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A11" s="215"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="224"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="225"/>
       <c r="G11" s="108"/>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
@@ -4769,16 +4769,16 @@
       <c r="BN11" s="131"/>
     </row>
     <row r="12" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A12" s="214"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="220" t="s">
+      <c r="D12" s="218"/>
+      <c r="E12" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="224" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="120"/>
@@ -4843,12 +4843,12 @@
       <c r="BN12" s="70"/>
     </row>
     <row r="13" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A13" s="215"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="225"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="226"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
       <c r="I13" s="126"/>
@@ -4911,20 +4911,20 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="206">
+      <c r="A14" s="207">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="207" t="s">
+      <c r="C14" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="208"/>
-      <c r="E14" s="211" t="s">
+      <c r="D14" s="209"/>
+      <c r="E14" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="212" t="s">
+      <c r="F14" s="213" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="50"/>
@@ -4989,12 +4989,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="163"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="213"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -5057,18 +5057,18 @@
       <c r="BN15" s="70"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="162">
+      <c r="A16" s="163">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="154" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="235" t="s">
+      <c r="F16" s="236" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="51"/>
@@ -5133,12 +5133,12 @@
       <c r="BN16" s="71"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="206"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="212"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -5201,20 +5201,20 @@
       <c r="BN17" s="72"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="236">
+      <c r="A18" s="237">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="237" t="s">
+      <c r="C18" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="238"/>
-      <c r="E18" s="239" t="s">
+      <c r="D18" s="239"/>
+      <c r="E18" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="204" t="s">
+      <c r="F18" s="205" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="38"/>
@@ -5279,12 +5279,12 @@
       <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="236"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="213"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="214"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -5347,18 +5347,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="236">
+      <c r="A20" s="237">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="240" t="s">
+      <c r="D20" s="168"/>
+      <c r="E20" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="235" t="s">
+      <c r="F20" s="236" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="51"/>
@@ -5423,12 +5423,12 @@
       <c r="BN20" s="71"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="236"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="213"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="214"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5491,18 +5491,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="236">
+      <c r="A22" s="237">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="240" t="s">
+      <c r="D22" s="168"/>
+      <c r="E22" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="235" t="s">
+      <c r="F22" s="236" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="52"/>
@@ -5567,12 +5567,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="236"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="242"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="243"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5635,20 +5635,20 @@
       <c r="BN23" s="76"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="162">
+      <c r="A24" s="163">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="237" t="s">
+      <c r="C24" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="238"/>
-      <c r="E24" s="239" t="s">
+      <c r="D24" s="239"/>
+      <c r="E24" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="204"/>
+      <c r="F24" s="205"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5711,14 +5711,14 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="163"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="213"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="214"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5758,7 +5758,7 @@
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
-      <c r="AT25" s="302"/>
+      <c r="AT25" s="154"/>
       <c r="AU25" s="13"/>
       <c r="AV25" s="19"/>
       <c r="AW25" s="19"/>
@@ -5781,18 +5781,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="162">
+      <c r="A26" s="163">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="154" t="s">
+      <c r="D26" s="160"/>
+      <c r="E26" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="156"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5855,12 +5855,12 @@
       <c r="BN26" s="78"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="163"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="157"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5923,18 +5923,18 @@
       <c r="BN27" s="78"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="162">
+      <c r="A28" s="163">
         <v>11</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="154" t="s">
+      <c r="D28" s="160"/>
+      <c r="E28" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="156"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5997,12 +5997,12 @@
       <c r="BN28" s="78"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="163"/>
+      <c r="A29" s="164"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="157"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6065,18 +6065,18 @@
       <c r="BN29" s="78"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="162">
+      <c r="A30" s="163">
         <v>12</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="154" t="s">
+      <c r="D30" s="160"/>
+      <c r="E30" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="156"/>
+      <c r="F30" s="157"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6139,12 +6139,12 @@
       <c r="BN30" s="78"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="163"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="157"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="158"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6188,10 +6188,10 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
+      <c r="AX31" s="154"/>
+      <c r="AY31" s="154"/>
+      <c r="AZ31" s="154"/>
+      <c r="BA31" s="154"/>
       <c r="BB31" s="13"/>
       <c r="BC31" s="19"/>
       <c r="BD31" s="63"/>
@@ -6207,18 +6207,18 @@
       <c r="BN31" s="78"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="162">
+      <c r="A32" s="163">
         <v>13</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="158" t="s">
+      <c r="C32" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="159"/>
-      <c r="E32" s="154" t="s">
+      <c r="D32" s="160"/>
+      <c r="E32" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="156"/>
+      <c r="F32" s="157"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6281,12 +6281,12 @@
       <c r="BN32" s="78"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="163"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="157"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6349,18 +6349,18 @@
       <c r="BN33" s="78"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="162">
+      <c r="A34" s="163">
         <v>14</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="243" t="s">
+      <c r="C34" s="244" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="167"/>
-      <c r="E34" s="240" t="s">
+      <c r="D34" s="168"/>
+      <c r="E34" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="235"/>
+      <c r="F34" s="236"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6423,12 +6423,12 @@
       <c r="BN34" s="78"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="163"/>
+      <c r="A35" s="164"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="213"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="214"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6491,20 +6491,20 @@
       <c r="BN35" s="78"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="162">
+      <c r="A36" s="163">
         <v>15</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="254" t="s">
+      <c r="C36" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="255"/>
-      <c r="E36" s="252" t="s">
+      <c r="D36" s="256"/>
+      <c r="E36" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="258"/>
+      <c r="F36" s="259"/>
       <c r="G36" s="38"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6567,12 +6567,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="206"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="257"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="259"/>
+      <c r="C37" s="257"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="260"/>
       <c r="G37" s="51"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6635,16 +6635,16 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="206"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="263" t="s">
+      <c r="C38" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="260" t="s">
+      <c r="D38" s="179"/>
+      <c r="E38" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="261"/>
+      <c r="F38" s="262"/>
       <c r="G38" s="50"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -6707,12 +6707,12 @@
       <c r="BN38" s="104"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="163"/>
+      <c r="A39" s="164"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="257"/>
-      <c r="E39" s="245"/>
-      <c r="F39" s="262"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="258"/>
+      <c r="E39" s="246"/>
+      <c r="F39" s="263"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6775,17 +6775,17 @@
       <c r="BN39" s="76"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="162">
+      <c r="A40" s="163">
         <v>16</v>
       </c>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="249" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="237" t="s">
+      <c r="C40" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="238"/>
-      <c r="E40" s="244" t="s">
+      <c r="D40" s="239"/>
+      <c r="E40" s="245" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="106"/>
@@ -6851,11 +6851,11 @@
       <c r="BN40" s="104"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1">
-      <c r="A41" s="206"/>
-      <c r="B41" s="249"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="251"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="235"/>
+      <c r="E41" s="252"/>
       <c r="F41" s="106"/>
       <c r="G41" s="51"/>
       <c r="H41" s="7"/>
@@ -6919,16 +6919,16 @@
       <c r="BN41" s="78"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1">
-      <c r="A42" s="206"/>
-      <c r="B42" s="249"/>
-      <c r="C42" s="243" t="s">
+      <c r="A42" s="207"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="244" t="s">
+      <c r="D42" s="168"/>
+      <c r="E42" s="245" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="246"/>
+      <c r="F42" s="247"/>
       <c r="G42" s="50"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -6991,12 +6991,12 @@
       <c r="BN42" s="104"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="163"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="245"/>
-      <c r="F43" s="247"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="248"/>
       <c r="G43" s="39"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -7212,54 +7212,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="194"/>
+      <c r="E1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="183"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="185"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="186"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="202"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="203"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7334,12 +7334,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="203"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7414,20 +7414,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="174">
+      <c r="A4" s="175">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="293" t="s">
+      <c r="D4" s="177"/>
+      <c r="E4" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="295"/>
+      <c r="F4" s="296"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7450,20 +7450,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="297" t="s">
+      <c r="AC4" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="286" t="s">
+      <c r="AD4" s="287" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="165"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="296"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="297"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7486,22 +7486,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="298"/>
-      <c r="AD5" s="287"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="288"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="164">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="289" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="291"/>
+      <c r="F6" s="292"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7524,16 +7524,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="298"/>
-      <c r="AD6" s="287"/>
+      <c r="AC6" s="299"/>
+      <c r="AD6" s="288"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="165"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="292"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="293"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7556,24 +7556,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="298"/>
-      <c r="AD7" s="287"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="288"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="162">
+      <c r="A8" s="163">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="301" t="s">
+      <c r="D8" s="209"/>
+      <c r="E8" s="302" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="282"/>
+      <c r="F8" s="283"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7596,16 +7596,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="287"/>
+      <c r="AC8" s="299"/>
+      <c r="AD8" s="288"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="279"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="281"/>
+      <c r="F9" s="280"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7628,24 +7628,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="298"/>
-      <c r="AD9" s="287"/>
+      <c r="AC9" s="299"/>
+      <c r="AD9" s="288"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="206">
+      <c r="A10" s="207">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="229" t="s">
+      <c r="C10" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="283" t="s">
+      <c r="D10" s="231"/>
+      <c r="E10" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="284"/>
+      <c r="F10" s="285"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7668,16 +7668,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="298"/>
-      <c r="AD10" s="287"/>
+      <c r="AC10" s="299"/>
+      <c r="AD10" s="288"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="278"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7700,22 +7700,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="298"/>
-      <c r="AD11" s="287"/>
+      <c r="AC11" s="299"/>
+      <c r="AD11" s="288"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="163">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="285" t="s">
+      <c r="D12" s="168"/>
+      <c r="E12" s="286" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="277"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7738,16 +7738,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="287"/>
+      <c r="AC12" s="299"/>
+      <c r="AD12" s="288"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="206"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="284"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="285"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7770,24 +7770,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="298"/>
-      <c r="AD13" s="287"/>
+      <c r="AC13" s="299"/>
+      <c r="AD13" s="288"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="236">
+      <c r="A14" s="237">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="E14" s="281" t="s">
+      <c r="D14" s="239"/>
+      <c r="E14" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="282"/>
+      <c r="F14" s="283"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7810,16 +7810,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="298"/>
-      <c r="AD14" s="287"/>
+      <c r="AC14" s="299"/>
+      <c r="AD14" s="288"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="236"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="278"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="279"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7842,22 +7842,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="298"/>
-      <c r="AD15" s="287"/>
+      <c r="AC15" s="299"/>
+      <c r="AD15" s="288"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="236">
+      <c r="A16" s="237">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="275" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="277"/>
+      <c r="F16" s="278"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7880,16 +7880,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="287"/>
+      <c r="AC16" s="299"/>
+      <c r="AD16" s="288"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="236"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="276"/>
-      <c r="F17" s="278"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="279"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7912,22 +7912,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="298"/>
-      <c r="AD17" s="287"/>
+      <c r="AC17" s="299"/>
+      <c r="AD17" s="288"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="236">
+      <c r="A18" s="237">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="275" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="277"/>
+      <c r="F18" s="278"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7950,16 +7950,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="287"/>
+      <c r="AC18" s="299"/>
+      <c r="AD18" s="288"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="236"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="279"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="281"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7982,24 +7982,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="287"/>
+      <c r="AC19" s="299"/>
+      <c r="AD19" s="288"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="162">
+      <c r="A20" s="163">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="237" t="s">
+      <c r="C20" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="238"/>
-      <c r="E20" s="281" t="s">
+      <c r="D20" s="239"/>
+      <c r="E20" s="282" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="282"/>
+      <c r="F20" s="283"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8022,18 +8022,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="287"/>
+      <c r="AC20" s="299"/>
+      <c r="AD20" s="288"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="278"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8056,22 +8056,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="298"/>
-      <c r="AD21" s="287"/>
+      <c r="AC21" s="299"/>
+      <c r="AD21" s="288"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="162">
+      <c r="A22" s="163">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="243" t="s">
+      <c r="C22" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="275" t="s">
+      <c r="D22" s="168"/>
+      <c r="E22" s="276" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="277"/>
+      <c r="F22" s="278"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8094,16 +8094,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="287"/>
+      <c r="AC22" s="299"/>
+      <c r="AD22" s="288"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="276"/>
-      <c r="F23" s="278"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="279"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8126,22 +8126,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="287"/>
+      <c r="AC23" s="299"/>
+      <c r="AD23" s="288"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="162">
+      <c r="A24" s="163">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="243" t="s">
+      <c r="C24" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="275" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="277"/>
+      <c r="F24" s="278"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8164,16 +8164,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="287"/>
+      <c r="AC24" s="299"/>
+      <c r="AD24" s="288"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="163"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="279"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="280"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -8196,24 +8196,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="298"/>
-      <c r="AD25" s="287"/>
+      <c r="AC25" s="299"/>
+      <c r="AD25" s="288"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="164">
+      <c r="A26" s="165">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="254" t="s">
+      <c r="C26" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="255"/>
-      <c r="E26" s="264" t="s">
+      <c r="D26" s="256"/>
+      <c r="E26" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="266"/>
+      <c r="F26" s="267"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8236,16 +8236,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="287"/>
+      <c r="AC26" s="299"/>
+      <c r="AD26" s="288"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="165"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="257"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="267"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="266"/>
+      <c r="F27" s="268"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8268,24 +8268,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="298"/>
-      <c r="AD27" s="287"/>
+      <c r="AC27" s="299"/>
+      <c r="AD27" s="288"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="164">
+      <c r="A28" s="165">
         <v>14</v>
       </c>
-      <c r="B28" s="269" t="s">
+      <c r="B28" s="270" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="237" t="s">
+      <c r="C28" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="238"/>
-      <c r="E28" s="269" t="s">
+      <c r="D28" s="239"/>
+      <c r="E28" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="273"/>
+      <c r="F28" s="274"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8308,16 +8308,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="287"/>
+      <c r="AC28" s="299"/>
+      <c r="AD28" s="288"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="268"/>
-      <c r="B29" s="270"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="274"/>
+      <c r="A29" s="269"/>
+      <c r="B29" s="271"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="275"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8340,8 +8340,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="299"/>
-      <c r="AD29" s="288"/>
+      <c r="AC29" s="300"/>
+      <c r="AD29" s="289"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
